--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2229813.440670399</v>
+        <v>2189850.157731203</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.9758914458</v>
+        <v>426806.9758914462</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.48847871</v>
+        <v>8362709.488478707</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7376106.468161048</v>
+        <v>7376106.468161051</v>
       </c>
     </row>
     <row r="11">
@@ -670,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>103.0088977318019</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>190.1066023865956</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>21.7973599200313</v>
       </c>
       <c r="E3" t="n">
-        <v>150.9608827844484</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -788,10 +788,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>66.75433449706937</v>
       </c>
       <c r="E5" t="n">
-        <v>190.1066023865956</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>241.0142888776591</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>24.09264407212915</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>174.3702863852114</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>120.6885423576403</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>236.9046075187036</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>81.94696239689884</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>123.6003327477366</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>281.6241949500874</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.2238804167309</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
         <v>251.2418970482362</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1451,16 +1451,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>38.78966489179808</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>136.64958867533</v>
@@ -1469,7 +1469,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>180.0616529903309</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>73.91737409206868</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>148.2421731387156</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>367.0014406673554</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>160.4752923549255</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2418970482362</v>
+        <v>143.3843885858859</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1697,10 +1697,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>17.79417311172712</v>
       </c>
       <c r="H15" t="n">
         <v>105.5335559456492</v>
@@ -1739,7 +1739,7 @@
         <v>158.7937537960548</v>
       </c>
       <c r="T15" t="n">
-        <v>70.09267063964604</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U15" t="n">
         <v>225.8957288909827</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>80.79258128802695</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>74.15307578127785</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>151.9166470735639</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>64.39238558502345</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1928,10 +1928,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>41.16551806305293</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S18" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>197.3677099213027</v>
@@ -1982,7 +1982,7 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>127.6697129884935</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>43.58123699316305</v>
+        <v>150.7617616219096</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.44704598407326</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>102.7113352232391</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>119.9028374420587</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2165,7 +2165,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>125.7035822286312</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S21" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T21" t="n">
-        <v>197.3677099213027</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.8957288909827</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>231.7484658692658</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>108.3027291048317</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.44704598407326</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>171.8582649431798</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>340.2617865988213</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S23" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>54.82207108555792</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>73.64690839405421</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2414,10 +2414,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>74.40951513808766</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S24" t="n">
         <v>158.7937537960548</v>
@@ -2456,7 +2456,7 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2520,28 +2520,28 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.44704598407326</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>209.3053109272533</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>36.4562349562207</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>58.28272660856686</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S26" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2418970482362</v>
+        <v>3.039694870611092</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2639,7 +2639,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>20.17002628298199</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2648,10 +2648,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>65.50479675552441</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S27" t="n">
         <v>158.7937537960548</v>
@@ -2690,7 +2690,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8957288909827</v>
+        <v>67.50465687964518</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>131.9203722953793</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>220.8871739987542</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>26.73110927253622</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>220.2810445897358</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2879,16 +2879,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>156.5668346859452</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>123.3277290573763</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I30" t="n">
         <v>65.50479675552441</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>158.7937537960548</v>
@@ -2936,7 +2936,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -3003,7 +3003,7 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T31" t="n">
-        <v>220.8871739987542</v>
+        <v>220.8871739987544</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S32" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2418970482362</v>
+        <v>200.2766262049522</v>
       </c>
       <c r="V32" t="n">
-        <v>127.4349622981231</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3119,16 +3119,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>83.29896986725154</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H33" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>158.7937537960548</v>
@@ -3170,7 +3170,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>44.84375218798685</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3231,31 +3231,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.44704598407326</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>221.8945316016869</v>
       </c>
       <c r="W34" t="n">
-        <v>171.8582649431798</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>234.2809929452684</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S35" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>328.0625172050284</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3350,19 +3350,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>135.9035971193933</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>20.17002628298199</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I36" t="n">
         <v>65.50479675552441</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S36" t="n">
         <v>158.7937537960548</v>
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3468,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.44704598407326</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>111.0308288438515</v>
+        <v>7.474574650667191</v>
       </c>
     </row>
     <row r="38">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>103.1176049972536</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S38" t="n">
-        <v>179.4658614532381</v>
+        <v>27.55758718647276</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -3599,10 +3599,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I39" t="n">
-        <v>64.75880519958775</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>158.7937537960548</v>
@@ -3638,7 +3638,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8957288909827</v>
+        <v>19.04449791805008</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>126.6360092824242</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3705,19 +3705,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>48.28789286870591</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3745,22 +3745,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>47.98022189472248</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2418970482362</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>3.12075101063162</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>73.64690839405421</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3836,10 +3836,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>14.31742697697815</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>167.3283684174596</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>55.99754945716007</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>226.5082169946981</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>326.1924309016296</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>237.9552220120416</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4067,7 +4067,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>3.722778175975093</v>
       </c>
       <c r="G45" t="n">
         <v>136.64958867533</v>
@@ -4076,7 +4076,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I45" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>158.7937537960548</v>
@@ -4121,7 +4121,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>86.9175696398748</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>141.8557190765649</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>154.1918883064001</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>233.7108255783361</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C2" t="n">
-        <v>233.7108255783361</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D2" t="n">
-        <v>233.7108255783361</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E2" t="n">
-        <v>233.7108255783361</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F2" t="n">
-        <v>226.7653248291326</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="G2" t="n">
-        <v>211.3080142077841</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>211.3080142077841</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>720.6083788665362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V2" t="n">
-        <v>720.6083788665362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W2" t="n">
-        <v>477.1596022224361</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X2" t="n">
-        <v>477.1596022224361</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y2" t="n">
-        <v>233.7108255783361</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>660.701031422288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C3" t="n">
-        <v>660.701031422288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D3" t="n">
-        <v>660.701031422288</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E3" t="n">
         <v>508.2152912359765</v>
@@ -4412,19 +4412,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>383.2428491569326</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4436,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>660.701031422288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>660.701031422288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>660.701031422288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W3" t="n">
-        <v>660.701031422288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X3" t="n">
-        <v>660.701031422288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y3" t="n">
-        <v>660.701031422288</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="4">
@@ -4518,22 +4518,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>233.7108255783361</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C5" t="n">
-        <v>233.7108255783361</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D5" t="n">
-        <v>233.7108255783361</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E5" t="n">
-        <v>41.68395448076474</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U5" t="n">
-        <v>720.6083788665362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X5" t="n">
-        <v>477.1596022224361</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y5" t="n">
-        <v>477.1596022224361</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>787.9255531013317</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G6" t="n">
         <v>20.03527576299844</v>
@@ -4649,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>462.9476827596951</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>227.7955745279523</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>227.7955745279523</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>227.7955745279523</v>
+        <v>787.9255531013317</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>787.9255531013317</v>
       </c>
     </row>
     <row r="7">
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278.1872303756613</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="C8" t="n">
-        <v>278.1872303756613</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="D8" t="n">
-        <v>278.1872303756613</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="E8" t="n">
-        <v>278.1872303756613</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>247.340362388537</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>517.4848137278872</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U8" t="n">
-        <v>517.4848137278872</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V8" t="n">
-        <v>517.4848137278872</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="W8" t="n">
-        <v>517.4848137278872</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="X8" t="n">
-        <v>278.1872303756613</v>
+        <v>254.2858631377404</v>
       </c>
       <c r="Y8" t="n">
-        <v>278.1872303756613</v>
+        <v>254.2858631377404</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4889,16 +4889,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>881.2824460188192</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>679.0958513775852</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>679.0958513775852</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="V9" t="n">
-        <v>679.0958513775852</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="W9" t="n">
-        <v>435.6470747334852</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="X9" t="n">
-        <v>227.7955745279523</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>828.7681742625825</v>
+        <v>451.066096387847</v>
       </c>
       <c r="C11" t="n">
-        <v>459.8056573221708</v>
+        <v>451.066096387847</v>
       </c>
       <c r="D11" t="n">
-        <v>459.8056573221708</v>
+        <v>451.066096387847</v>
       </c>
       <c r="E11" t="n">
-        <v>459.8056573221708</v>
+        <v>451.066096387847</v>
       </c>
       <c r="F11" t="n">
-        <v>48.81975253256327</v>
+        <v>451.066096387847</v>
       </c>
       <c r="G11" t="n">
         <v>48.81975253256327</v>
@@ -5041,13 +5041,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J11" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K11" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L11" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M11" t="n">
         <v>1237.436361307048</v>
@@ -5065,28 +5065,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S11" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T11" t="n">
-        <v>2440.987626628164</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U11" t="n">
-        <v>2187.207932640046</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="V11" t="n">
-        <v>1856.145045296475</v>
+        <v>1567.439841894853</v>
       </c>
       <c r="W11" t="n">
-        <v>1503.376390026361</v>
+        <v>1214.671186624739</v>
       </c>
       <c r="X11" t="n">
-        <v>1503.376390026361</v>
+        <v>841.2054283636587</v>
       </c>
       <c r="Y11" t="n">
-        <v>1113.23705805055</v>
+        <v>451.066096387847</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>748.1556141834751</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C12" t="n">
-        <v>748.1556141834751</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D12" t="n">
-        <v>599.2212045222238</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E12" t="n">
-        <v>439.9837495167684</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="F12" t="n">
-        <v>293.4491915436533</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G12" t="n">
-        <v>155.4193039928149</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H12" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I12" t="n">
         <v>48.81975253256327</v>
@@ -5129,16 +5129,16 @@
         <v>664.2381464478937</v>
       </c>
       <c r="M12" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N12" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O12" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.987626628164</v>
@@ -5162,10 +5162,10 @@
         <v>1306.011707534488</v>
       </c>
       <c r="X12" t="n">
-        <v>1124.131249968497</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y12" t="n">
-        <v>916.3709512035432</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.81975253256327</v>
+        <v>123.4837667669761</v>
       </c>
       <c r="C13" t="n">
-        <v>48.81975253256327</v>
+        <v>123.4837667669761</v>
       </c>
       <c r="D13" t="n">
-        <v>48.81975253256327</v>
+        <v>123.4837667669761</v>
       </c>
       <c r="E13" t="n">
-        <v>48.81975253256327</v>
+        <v>123.4837667669761</v>
       </c>
       <c r="F13" t="n">
         <v>48.81975253256327</v>
@@ -5223,28 +5223,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R13" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S13" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T13" t="n">
-        <v>487.9764913965093</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U13" t="n">
-        <v>487.9764913965093</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="V13" t="n">
-        <v>338.2369225695239</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="W13" t="n">
-        <v>48.81975253256327</v>
+        <v>123.4837667669761</v>
       </c>
       <c r="X13" t="n">
-        <v>48.81975253256327</v>
+        <v>123.4837667669761</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.81975253256327</v>
+        <v>123.4837667669761</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>951.3892161671761</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="C14" t="n">
-        <v>951.3892161671761</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="D14" t="n">
-        <v>951.3892161671761</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="E14" t="n">
-        <v>951.3892161671761</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="F14" t="n">
-        <v>540.4033113775685</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="G14" t="n">
-        <v>540.4033113775685</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H14" t="n">
         <v>210.9160074365284</v>
@@ -5281,7 +5281,7 @@
         <v>145.9660485697318</v>
       </c>
       <c r="K14" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L14" t="n">
         <v>795.0052981540045</v>
@@ -5305,25 +5305,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S14" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T14" t="n">
-        <v>2259.7089786956</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U14" t="n">
-        <v>2005.929284707482</v>
+        <v>2076.540306216531</v>
       </c>
       <c r="V14" t="n">
-        <v>1674.866397363912</v>
+        <v>1745.47741887296</v>
       </c>
       <c r="W14" t="n">
-        <v>1322.097742093798</v>
+        <v>1392.708763602846</v>
       </c>
       <c r="X14" t="n">
-        <v>1322.097742093798</v>
+        <v>1019.243005341766</v>
       </c>
       <c r="Y14" t="n">
-        <v>1322.097742093798</v>
+        <v>629.1036733659547</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>850.7452172829803</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C15" t="n">
-        <v>676.2921880018533</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D15" t="n">
-        <v>527.3577783406021</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E15" t="n">
-        <v>368.1203233351466</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F15" t="n">
-        <v>221.5857653620315</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="G15" t="n">
         <v>221.5857653620315</v>
@@ -5357,25 +5357,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K15" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L15" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M15" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N15" t="n">
-        <v>1714.953720827627</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O15" t="n">
-        <v>2127.159342346856</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P15" t="n">
-        <v>2440.987626628164</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q15" t="n">
         <v>2440.987626628164</v>
@@ -5387,22 +5387,22 @@
         <v>2222.939999577549</v>
       </c>
       <c r="T15" t="n">
-        <v>2152.139322163765</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U15" t="n">
-        <v>1923.961818233479</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V15" t="n">
-        <v>1688.809710001737</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W15" t="n">
-        <v>1434.572353273535</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X15" t="n">
-        <v>1226.720853068002</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y15" t="n">
-        <v>1018.960554303048</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="16">
@@ -5466,22 +5466,22 @@
         <v>640.638169680758</v>
       </c>
       <c r="T16" t="n">
-        <v>412.9009368039365</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U16" t="n">
-        <v>123.7218492813288</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V16" t="n">
-        <v>123.7218492813288</v>
+        <v>640.638169680758</v>
       </c>
       <c r="W16" t="n">
-        <v>48.81975253256327</v>
+        <v>351.2209996437974</v>
       </c>
       <c r="X16" t="n">
-        <v>48.81975253256327</v>
+        <v>351.2209996437974</v>
       </c>
       <c r="Y16" t="n">
-        <v>48.81975253256327</v>
+        <v>130.4284205002673</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1375.209346660811</v>
+        <v>1434.619695818848</v>
       </c>
       <c r="C17" t="n">
-        <v>1006.246829720399</v>
+        <v>1434.619695818848</v>
       </c>
       <c r="D17" t="n">
-        <v>852.7956710602338</v>
+        <v>1434.619695818848</v>
       </c>
       <c r="E17" t="n">
-        <v>467.0074184619895</v>
+        <v>1369.576882096602</v>
       </c>
       <c r="F17" t="n">
-        <v>467.0074184619895</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="G17" t="n">
-        <v>48.81975253256327</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H17" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I17" t="n">
         <v>48.81975253256327</v>
@@ -5518,10 +5518,10 @@
         <v>145.966048569732</v>
       </c>
       <c r="K17" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L17" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M17" t="n">
         <v>1237.436361307048</v>
@@ -5545,22 +5545,22 @@
         <v>2371.897027894854</v>
       </c>
       <c r="T17" t="n">
-        <v>2371.897027894854</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U17" t="n">
-        <v>2118.117333906737</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="V17" t="n">
-        <v>2118.117333906737</v>
+        <v>1821.21953588297</v>
       </c>
       <c r="W17" t="n">
-        <v>1765.348678636623</v>
+        <v>1821.21953588297</v>
       </c>
       <c r="X17" t="n">
-        <v>1765.348678636623</v>
+        <v>1821.21953588297</v>
       </c>
       <c r="Y17" t="n">
-        <v>1375.209346660811</v>
+        <v>1821.21953588297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>722.1845715439331</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C18" t="n">
-        <v>547.7315422628061</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D18" t="n">
-        <v>547.7315422628061</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E18" t="n">
         <v>506.150210885985</v>
@@ -5594,25 +5594,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J18" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K18" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L18" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M18" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N18" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O18" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q18" t="n">
         <v>2440.987626628164</v>
@@ -5621,25 +5621,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S18" t="n">
-        <v>2222.939999577549</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="T18" t="n">
-        <v>2023.578676424718</v>
+        <v>2183.976407531844</v>
       </c>
       <c r="U18" t="n">
-        <v>1795.401172494432</v>
+        <v>1955.798903601558</v>
       </c>
       <c r="V18" t="n">
-        <v>1560.249064262689</v>
+        <v>1826.839597552575</v>
       </c>
       <c r="W18" t="n">
-        <v>1306.011707534488</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="X18" t="n">
-        <v>1098.160207328955</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y18" t="n">
-        <v>890.3999085640012</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="19">
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>92.84120404080878</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="C19" t="n">
-        <v>48.81975253256327</v>
+        <v>198.936391944899</v>
       </c>
       <c r="D19" t="n">
         <v>48.81975253256327</v>
@@ -5682,43 +5682,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M19" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N19" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O19" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P19" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q19" t="n">
-        <v>602.8128707069466</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R19" t="n">
-        <v>602.8128707069466</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S19" t="n">
-        <v>602.8128707069466</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T19" t="n">
-        <v>602.8128707069466</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U19" t="n">
-        <v>313.6337831843389</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V19" t="n">
-        <v>313.6337831843389</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W19" t="n">
-        <v>313.6337831843389</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="X19" t="n">
-        <v>313.6337831843389</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="Y19" t="n">
-        <v>92.84120404080878</v>
+        <v>351.2209996437976</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>776.0479680797255</v>
+        <v>1187.033872869333</v>
       </c>
       <c r="C20" t="n">
-        <v>407.0854511393138</v>
+        <v>818.0713559289213</v>
       </c>
       <c r="D20" t="n">
-        <v>48.81975253256327</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="E20" t="n">
-        <v>48.81975253256327</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F20" t="n">
         <v>48.81975253256327</v>
@@ -5752,13 +5752,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J20" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K20" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
@@ -5779,25 +5779,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S20" t="n">
-        <v>2440.987626628164</v>
+        <v>2337.238803170346</v>
       </c>
       <c r="T20" t="n">
-        <v>2221.37302195985</v>
+        <v>2337.238803170346</v>
       </c>
       <c r="U20" t="n">
-        <v>1967.593327971733</v>
+        <v>2337.238803170346</v>
       </c>
       <c r="V20" t="n">
-        <v>1636.530440628162</v>
+        <v>2337.238803170346</v>
       </c>
       <c r="W20" t="n">
-        <v>1283.761785358048</v>
+        <v>2337.238803170346</v>
       </c>
       <c r="X20" t="n">
-        <v>1283.761785358048</v>
+        <v>1963.773044909266</v>
       </c>
       <c r="Y20" t="n">
-        <v>1162.647808143847</v>
+        <v>1573.633712933455</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>722.1845715439331</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C21" t="n">
-        <v>547.7315422628061</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D21" t="n">
-        <v>547.7315422628061</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E21" t="n">
-        <v>388.4940872573506</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F21" t="n">
-        <v>241.9595292842356</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G21" t="n">
-        <v>114.9862139017798</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H21" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I21" t="n">
         <v>48.81975253256327</v>
@@ -5834,13 +5834,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K21" t="n">
-        <v>161.1406371339194</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L21" t="n">
-        <v>540.2677802593126</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M21" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N21" t="n">
         <v>1557.865593173221</v>
@@ -5861,22 +5861,22 @@
         <v>2222.939999577549</v>
       </c>
       <c r="T21" t="n">
-        <v>2023.578676424718</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="U21" t="n">
-        <v>1795.401172494432</v>
+        <v>1994.762495647263</v>
       </c>
       <c r="V21" t="n">
-        <v>1560.249064262689</v>
+        <v>1760.673136183358</v>
       </c>
       <c r="W21" t="n">
-        <v>1306.011707534488</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X21" t="n">
-        <v>1098.160207328955</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y21" t="n">
-        <v>890.3999085640012</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="22">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48.81975253256327</v>
+        <v>158.2164485980498</v>
       </c>
       <c r="C22" t="n">
         <v>48.81975253256327</v>
@@ -5919,43 +5919,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M22" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N22" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O22" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P22" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q22" t="n">
-        <v>602.8128707069466</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R22" t="n">
-        <v>450.1511924226977</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S22" t="n">
-        <v>450.1511924226977</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T22" t="n">
-        <v>222.4139595458762</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U22" t="n">
-        <v>222.4139595458762</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="V22" t="n">
-        <v>222.4139595458762</v>
+        <v>158.2164485980498</v>
       </c>
       <c r="W22" t="n">
-        <v>222.4139595458762</v>
+        <v>158.2164485980498</v>
       </c>
       <c r="X22" t="n">
-        <v>48.81975253256327</v>
+        <v>158.2164485980498</v>
       </c>
       <c r="Y22" t="n">
-        <v>48.81975253256327</v>
+        <v>158.2164485980498</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1491.32352461901</v>
+        <v>1221.692097593841</v>
       </c>
       <c r="C23" t="n">
-        <v>1122.361007678598</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="D23" t="n">
-        <v>764.0953090718475</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="E23" t="n">
-        <v>378.3070564736033</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F23" t="n">
-        <v>378.3070564736033</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G23" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H23" t="n">
         <v>48.81975253256327</v>
@@ -6016,25 +6016,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S23" t="n">
-        <v>2190.61837996229</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T23" t="n">
-        <v>2190.61837996229</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U23" t="n">
-        <v>1936.838685974173</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="V23" t="n">
-        <v>1936.838685974173</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="W23" t="n">
-        <v>1936.838685974173</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="X23" t="n">
-        <v>1881.462856594821</v>
+        <v>1998.431269633774</v>
       </c>
       <c r="Y23" t="n">
-        <v>1491.32352461901</v>
+        <v>1608.291937657963</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>816.0090920043505</v>
+        <v>957.3366797756757</v>
       </c>
       <c r="C24" t="n">
-        <v>641.5560627232235</v>
+        <v>782.8836504945488</v>
       </c>
       <c r="D24" t="n">
-        <v>492.6216530619722</v>
+        <v>633.9492408332975</v>
       </c>
       <c r="E24" t="n">
-        <v>333.3841980565167</v>
+        <v>474.711785827842</v>
       </c>
       <c r="F24" t="n">
-        <v>186.8496400834017</v>
+        <v>328.177227854727</v>
       </c>
       <c r="G24" t="n">
-        <v>48.81975253256327</v>
+        <v>190.1473403038886</v>
       </c>
       <c r="H24" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I24" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J24" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K24" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L24" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M24" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N24" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O24" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q24" t="n">
         <v>2440.987626628164</v>
@@ -6104,16 +6104,16 @@
         <v>1795.401172494432</v>
       </c>
       <c r="V24" t="n">
-        <v>1560.249064262689</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="W24" t="n">
-        <v>1306.011707534488</v>
+        <v>1541.163815766231</v>
       </c>
       <c r="X24" t="n">
-        <v>1098.160207328955</v>
+        <v>1333.312315560698</v>
       </c>
       <c r="Y24" t="n">
-        <v>890.3999085640012</v>
+        <v>1125.552016795744</v>
       </c>
     </row>
     <row r="25">
@@ -6156,37 +6156,37 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M25" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N25" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O25" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q25" t="n">
-        <v>602.8128707069466</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R25" t="n">
-        <v>602.8128707069466</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="S25" t="n">
-        <v>602.8128707069466</v>
+        <v>276.5569854093848</v>
       </c>
       <c r="T25" t="n">
-        <v>602.8128707069466</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="U25" t="n">
-        <v>313.6337831843389</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="V25" t="n">
-        <v>313.6337831843389</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="W25" t="n">
-        <v>276.8093034305806</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X25" t="n">
         <v>48.81975253256327</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>269.7874484552829</v>
+        <v>1605.221538798759</v>
       </c>
       <c r="C26" t="n">
-        <v>269.7874484552829</v>
+        <v>1236.259021858348</v>
       </c>
       <c r="D26" t="n">
-        <v>269.7874484552829</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="E26" t="n">
-        <v>269.7874484552829</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F26" t="n">
-        <v>210.9160074365284</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G26" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H26" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I26" t="n">
         <v>48.81975253256327</v>
@@ -6229,10 +6229,10 @@
         <v>145.9660485697318</v>
       </c>
       <c r="K26" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L26" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M26" t="n">
         <v>1237.436361307048</v>
@@ -6253,25 +6253,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S26" t="n">
-        <v>2190.61837996229</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T26" t="n">
-        <v>1971.003775293977</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U26" t="n">
-        <v>1717.224081305859</v>
+        <v>2368.826629035651</v>
       </c>
       <c r="V26" t="n">
-        <v>1386.161193962289</v>
+        <v>2368.826629035651</v>
       </c>
       <c r="W26" t="n">
-        <v>1033.392538692174</v>
+        <v>2368.826629035651</v>
       </c>
       <c r="X26" t="n">
-        <v>659.9267804310946</v>
+        <v>1995.360870774571</v>
       </c>
       <c r="Y26" t="n">
-        <v>269.7874484552829</v>
+        <v>1605.221538798759</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>722.1845715439331</v>
+        <v>882.175553373567</v>
       </c>
       <c r="C27" t="n">
-        <v>547.7315422628061</v>
+        <v>707.72252409244</v>
       </c>
       <c r="D27" t="n">
-        <v>527.3577783406021</v>
+        <v>558.7881144311888</v>
       </c>
       <c r="E27" t="n">
-        <v>368.1203233351466</v>
+        <v>399.5506594257333</v>
       </c>
       <c r="F27" t="n">
-        <v>221.5857653620315</v>
+        <v>253.0161014526182</v>
       </c>
       <c r="G27" t="n">
-        <v>221.5857653620315</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="H27" t="n">
         <v>114.9862139017798</v>
@@ -6305,25 +6305,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J27" t="n">
-        <v>112.9860412505444</v>
+        <v>81.93751399838814</v>
       </c>
       <c r="K27" t="n">
-        <v>349.2772920404815</v>
+        <v>318.2287647883252</v>
       </c>
       <c r="L27" t="n">
-        <v>728.4044351658747</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M27" t="n">
-        <v>1222.807150561437</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N27" t="n">
-        <v>1746.002248079783</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O27" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q27" t="n">
         <v>2440.987626628164</v>
@@ -6338,19 +6338,19 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U27" t="n">
-        <v>1795.401172494432</v>
+        <v>1955.392154324066</v>
       </c>
       <c r="V27" t="n">
-        <v>1560.249064262689</v>
+        <v>1720.240046092323</v>
       </c>
       <c r="W27" t="n">
-        <v>1306.011707534488</v>
+        <v>1466.002689364122</v>
       </c>
       <c r="X27" t="n">
-        <v>1098.160207328955</v>
+        <v>1258.151189158589</v>
       </c>
       <c r="Y27" t="n">
-        <v>890.3999085640012</v>
+        <v>1050.390890393635</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="C28" t="n">
-        <v>48.81975253256327</v>
+        <v>507.3852683722943</v>
       </c>
       <c r="D28" t="n">
-        <v>48.81975253256327</v>
+        <v>357.2686289599586</v>
       </c>
       <c r="E28" t="n">
-        <v>48.81975253256327</v>
+        <v>357.2686289599586</v>
       </c>
       <c r="F28" t="n">
-        <v>48.81975253256327</v>
+        <v>357.2686289599586</v>
       </c>
       <c r="G28" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="H28" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I28" t="n">
         <v>48.81975253256327</v>
@@ -6393,43 +6393,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M28" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N28" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O28" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P28" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q28" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R28" t="n">
-        <v>487.9764913965091</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S28" t="n">
-        <v>271.9381101070625</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T28" t="n">
-        <v>271.9381101070625</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U28" t="n">
-        <v>271.9381101070625</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V28" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W28" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X28" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Y28" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1706.139985705832</v>
+        <v>1290.782696327151</v>
       </c>
       <c r="C29" t="n">
-        <v>1337.17746876542</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D29" t="n">
-        <v>1337.17746876542</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E29" t="n">
-        <v>951.3892161671761</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F29" t="n">
-        <v>540.4033113775685</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G29" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H29" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I29" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J29" t="n">
-        <v>145.9660485697319</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K29" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L29" t="n">
         <v>795.0052981540045</v>
@@ -6490,25 +6490,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S29" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T29" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U29" t="n">
-        <v>2037.202873049403</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V29" t="n">
-        <v>1706.139985705832</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W29" t="n">
-        <v>1706.139985705832</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="X29" t="n">
-        <v>1706.139985705832</v>
+        <v>2067.521868367084</v>
       </c>
       <c r="Y29" t="n">
-        <v>1706.139985705832</v>
+        <v>1677.382536391272</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>722.1845715439331</v>
+        <v>987.6859676929544</v>
       </c>
       <c r="C30" t="n">
-        <v>547.7315422628061</v>
+        <v>813.2329384118274</v>
       </c>
       <c r="D30" t="n">
-        <v>398.7971326015548</v>
+        <v>664.2985287505761</v>
       </c>
       <c r="E30" t="n">
-        <v>239.5596775960993</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F30" t="n">
-        <v>239.5596775960993</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G30" t="n">
-        <v>114.9862139017798</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H30" t="n">
         <v>114.9862139017798</v>
@@ -6542,52 +6542,52 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J30" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K30" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L30" t="n">
-        <v>540.2677802593126</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M30" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N30" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O30" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R30" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S30" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T30" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U30" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V30" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W30" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X30" t="n">
-        <v>1098.160207328955</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="Y30" t="n">
-        <v>890.3999085640012</v>
+        <v>1155.901304713022</v>
       </c>
     </row>
     <row r="31">
@@ -6630,25 +6630,25 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M31" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N31" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O31" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P31" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q31" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R31" t="n">
-        <v>487.9764913965091</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="S31" t="n">
-        <v>271.9381101070625</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="T31" t="n">
         <v>48.81975253256327</v>
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>845.5939099204151</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="C32" t="n">
-        <v>845.5939099204151</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="D32" t="n">
-        <v>845.5939099204151</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="E32" t="n">
-        <v>459.8056573221708</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="F32" t="n">
-        <v>48.81975253256327</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="G32" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H32" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I32" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J32" t="n">
         <v>145.966048569732</v>
       </c>
       <c r="K32" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977593</v>
       </c>
       <c r="L32" t="n">
-        <v>795.0052981540045</v>
+        <v>795.005298154005</v>
       </c>
       <c r="M32" t="n">
         <v>1237.436361307048</v>
@@ -6718,34 +6718,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P32" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q32" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R32" t="n">
-        <v>2371.897027894854</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S32" t="n">
-        <v>2190.61837996229</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="T32" t="n">
-        <v>1971.003775293977</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="U32" t="n">
-        <v>1717.224081305859</v>
+        <v>2169.59740546561</v>
       </c>
       <c r="V32" t="n">
-        <v>1588.501897166341</v>
+        <v>2169.59740546561</v>
       </c>
       <c r="W32" t="n">
-        <v>1235.733241896227</v>
+        <v>1816.828750195496</v>
       </c>
       <c r="X32" t="n">
-        <v>1235.733241896227</v>
+        <v>1816.828750195496</v>
       </c>
       <c r="Y32" t="n">
-        <v>845.5939099204151</v>
+        <v>1426.689418219684</v>
       </c>
     </row>
     <row r="33">
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>722.1845715439331</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C33" t="n">
-        <v>547.7315422628061</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D33" t="n">
-        <v>398.7971326015548</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E33" t="n">
-        <v>239.5596775960993</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F33" t="n">
-        <v>239.5596775960993</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G33" t="n">
-        <v>155.4193039928149</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H33" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I33" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J33" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K33" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L33" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M33" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N33" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O33" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P33" t="n">
         <v>2283.899498973758</v>
@@ -6803,28 +6803,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R33" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S33" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521038</v>
       </c>
       <c r="T33" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368207</v>
       </c>
       <c r="U33" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V33" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W33" t="n">
-        <v>1306.011707534488</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="X33" t="n">
-        <v>1098.160207328955</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y33" t="n">
-        <v>890.3999085640012</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="C34" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="D34" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="E34" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K34" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L34" t="n">
         <v>206.6297039190408</v>
       </c>
       <c r="M34" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N34" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O34" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P34" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q34" t="n">
-        <v>602.8128707069466</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R34" t="n">
-        <v>450.1511924226977</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S34" t="n">
-        <v>450.1511924226977</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T34" t="n">
-        <v>222.4139595458762</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U34" t="n">
-        <v>222.4139595458762</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V34" t="n">
-        <v>222.4139595458762</v>
+        <v>416.5022791740038</v>
       </c>
       <c r="W34" t="n">
-        <v>48.81975253256327</v>
+        <v>416.5022791740038</v>
       </c>
       <c r="X34" t="n">
-        <v>48.81975253256327</v>
+        <v>416.5022791740038</v>
       </c>
       <c r="Y34" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1012.695435701209</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="C35" t="n">
-        <v>643.732918760797</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D35" t="n">
-        <v>285.4672201540465</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E35" t="n">
-        <v>285.4672201540465</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F35" t="n">
-        <v>48.81975253256327</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G35" t="n">
         <v>48.81975253256327</v>
@@ -6937,13 +6937,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J35" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K35" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M35" t="n">
         <v>1237.436361307048</v>
@@ -6964,25 +6964,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S35" t="n">
-        <v>2190.61837996229</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T35" t="n">
-        <v>1971.003775293977</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U35" t="n">
-        <v>1717.224081305859</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="V35" t="n">
-        <v>1386.161193962289</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="W35" t="n">
-        <v>1386.161193962289</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="X35" t="n">
-        <v>1012.695435701209</v>
+        <v>2040.520747889775</v>
       </c>
       <c r="Y35" t="n">
-        <v>1012.695435701209</v>
+        <v>1650.381415913963</v>
       </c>
     </row>
     <row r="36">
@@ -6998,16 +6998,16 @@
         <v>547.7315422628061</v>
       </c>
       <c r="D36" t="n">
-        <v>398.7971326015548</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="E36" t="n">
-        <v>261.5207718748949</v>
+        <v>388.4940872573506</v>
       </c>
       <c r="F36" t="n">
-        <v>114.9862139017798</v>
+        <v>241.9595292842356</v>
       </c>
       <c r="G36" t="n">
-        <v>114.9862139017798</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H36" t="n">
         <v>114.9862139017798</v>
@@ -7016,16 +7016,16 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J36" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K36" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L36" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M36" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N36" t="n">
         <v>1557.865593173221</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>48.81975253256327</v>
+        <v>633.0880942760439</v>
       </c>
       <c r="C37" t="n">
-        <v>48.81975253256327</v>
+        <v>633.0880942760439</v>
       </c>
       <c r="D37" t="n">
-        <v>48.81975253256327</v>
+        <v>482.9714548637081</v>
       </c>
       <c r="E37" t="n">
-        <v>48.81975253256327</v>
+        <v>335.058361281315</v>
       </c>
       <c r="F37" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="G37" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="H37" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I37" t="n">
         <v>48.81975253256327</v>
@@ -7104,43 +7104,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M37" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N37" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O37" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P37" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q37" t="n">
-        <v>602.8128707069466</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R37" t="n">
-        <v>450.1511924226977</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S37" t="n">
-        <v>450.1511924226977</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T37" t="n">
-        <v>450.1511924226977</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U37" t="n">
-        <v>160.97210490009</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V37" t="n">
-        <v>160.97210490009</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W37" t="n">
-        <v>160.97210490009</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X37" t="n">
-        <v>160.97210490009</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Y37" t="n">
-        <v>48.81975253256327</v>
+        <v>633.0880942760439</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>897.0329007044809</v>
+        <v>1236.259021858348</v>
       </c>
       <c r="C38" t="n">
-        <v>792.873703737558</v>
+        <v>1236.259021858348</v>
       </c>
       <c r="D38" t="n">
-        <v>434.6080051308075</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="E38" t="n">
-        <v>48.81975253256327</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F38" t="n">
-        <v>48.81975253256327</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G38" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H38" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I38" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J38" t="n">
         <v>145.966048569732</v>
       </c>
       <c r="K38" t="n">
-        <v>412.3079679977591</v>
+        <v>412.3079679977593</v>
       </c>
       <c r="L38" t="n">
-        <v>795.0052981540045</v>
+        <v>795.005298154005</v>
       </c>
       <c r="M38" t="n">
         <v>1237.436361307048</v>
@@ -7201,25 +7201,25 @@
         <v>2371.897027894855</v>
       </c>
       <c r="S38" t="n">
-        <v>2190.618379962291</v>
+        <v>2344.061081241852</v>
       </c>
       <c r="T38" t="n">
-        <v>1971.003775293977</v>
+        <v>2344.061081241852</v>
       </c>
       <c r="U38" t="n">
-        <v>1971.003775293977</v>
+        <v>2344.061081241852</v>
       </c>
       <c r="V38" t="n">
-        <v>1639.940887950407</v>
+        <v>2012.998193898281</v>
       </c>
       <c r="W38" t="n">
-        <v>1287.172232680293</v>
+        <v>2012.998193898281</v>
       </c>
       <c r="X38" t="n">
-        <v>1287.172232680293</v>
+        <v>2012.998193898281</v>
       </c>
       <c r="Y38" t="n">
-        <v>897.0329007044809</v>
+        <v>1622.858861922469</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>722.1845715439331</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C39" t="n">
-        <v>547.7315422628061</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D39" t="n">
-        <v>398.7971326015548</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E39" t="n">
-        <v>398.7971326015548</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F39" t="n">
-        <v>252.2625746284398</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G39" t="n">
-        <v>114.2326870776014</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H39" t="n">
-        <v>114.2326870776014</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I39" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J39" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K39" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L39" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M39" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N39" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O39" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q39" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R39" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S39" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521038</v>
       </c>
       <c r="T39" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368207</v>
       </c>
       <c r="U39" t="n">
-        <v>1795.401172494432</v>
+        <v>2061.991705784318</v>
       </c>
       <c r="V39" t="n">
-        <v>1560.249064262689</v>
+        <v>1826.839597552575</v>
       </c>
       <c r="W39" t="n">
-        <v>1306.011707534488</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="X39" t="n">
-        <v>1098.160207328955</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y39" t="n">
-        <v>890.3999085640012</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="C40" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="D40" t="n">
-        <v>48.81975253256327</v>
+        <v>512.7230087894206</v>
       </c>
       <c r="E40" t="n">
-        <v>48.81975253256327</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="F40" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091172</v>
       </c>
       <c r="G40" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H40" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I40" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J40" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K40" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L40" t="n">
         <v>206.6297039190408</v>
@@ -7353,31 +7353,31 @@
         <v>640.6381696807582</v>
       </c>
       <c r="Q40" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R40" t="n">
-        <v>554.0372213446176</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S40" t="n">
-        <v>337.9988400551709</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T40" t="n">
-        <v>337.9988400551709</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U40" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V40" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W40" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X40" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Y40" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1323.932475581935</v>
+        <v>1263.021297461557</v>
       </c>
       <c r="C41" t="n">
-        <v>954.9699586415231</v>
+        <v>894.0587805211449</v>
       </c>
       <c r="D41" t="n">
-        <v>596.7042600347727</v>
+        <v>894.0587805211449</v>
       </c>
       <c r="E41" t="n">
-        <v>210.9160074365284</v>
+        <v>508.2705279229006</v>
       </c>
       <c r="F41" t="n">
-        <v>210.9160074365284</v>
+        <v>97.28462313329305</v>
       </c>
       <c r="G41" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H41" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I41" t="n">
         <v>48.81975253256327</v>
@@ -7435,28 +7435,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R41" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S41" t="n">
-        <v>2190.61837996229</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T41" t="n">
-        <v>1971.003775293977</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="U41" t="n">
-        <v>1717.224081305859</v>
+        <v>2005.929284707482</v>
       </c>
       <c r="V41" t="n">
-        <v>1717.224081305859</v>
+        <v>2005.929284707482</v>
       </c>
       <c r="W41" t="n">
-        <v>1714.071807557747</v>
+        <v>1653.160629437368</v>
       </c>
       <c r="X41" t="n">
-        <v>1714.071807557747</v>
+        <v>1653.160629437368</v>
       </c>
       <c r="Y41" t="n">
-        <v>1323.932475581935</v>
+        <v>1263.021297461557</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>816.0090920043505</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C42" t="n">
-        <v>641.5560627232235</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="D42" t="n">
-        <v>492.6216530619722</v>
+        <v>573.2501618826818</v>
       </c>
       <c r="E42" t="n">
-        <v>333.3841980565167</v>
+        <v>414.0127068772263</v>
       </c>
       <c r="F42" t="n">
-        <v>186.8496400834017</v>
+        <v>267.4781489041113</v>
       </c>
       <c r="G42" t="n">
-        <v>48.81975253256327</v>
+        <v>129.4482613532729</v>
       </c>
       <c r="H42" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I42" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J42" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K42" t="n">
-        <v>349.2772920404815</v>
+        <v>161.1406371339193</v>
       </c>
       <c r="L42" t="n">
-        <v>728.4044351658748</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M42" t="n">
         <v>1034.670495654875</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>217.7559354604702</v>
+        <v>368.0366071214529</v>
       </c>
       <c r="C43" t="n">
-        <v>48.81975253256327</v>
+        <v>368.0366071214529</v>
       </c>
       <c r="D43" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="E43" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="F43" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G43" t="n">
         <v>48.81975253256327</v>
@@ -7590,31 +7590,31 @@
         <v>640.6381696807582</v>
       </c>
       <c r="Q43" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R43" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S43" t="n">
-        <v>386.7744894175001</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T43" t="n">
-        <v>386.7744894175001</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="U43" t="n">
-        <v>217.7559354604702</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="V43" t="n">
-        <v>217.7559354604702</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="W43" t="n">
-        <v>217.7559354604702</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="X43" t="n">
-        <v>217.7559354604702</v>
+        <v>368.0366071214529</v>
       </c>
       <c r="Y43" t="n">
-        <v>217.7559354604702</v>
+        <v>368.0366071214529</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1207.480627192637</v>
+        <v>1533.346912468206</v>
       </c>
       <c r="C44" t="n">
-        <v>1207.480627192637</v>
+        <v>1533.346912468206</v>
       </c>
       <c r="D44" t="n">
-        <v>1207.480627192637</v>
+        <v>1175.081213861455</v>
       </c>
       <c r="E44" t="n">
-        <v>1207.480627192637</v>
+        <v>789.2929612632108</v>
       </c>
       <c r="F44" t="n">
-        <v>796.4947224030295</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="G44" t="n">
         <v>378.3070564736033</v>
@@ -7654,7 +7654,7 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L44" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540041</v>
       </c>
       <c r="M44" t="n">
         <v>1237.436361307048</v>
@@ -7672,28 +7672,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R44" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S44" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T44" t="n">
-        <v>2440.987626628164</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U44" t="n">
-        <v>2187.207932640046</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="V44" t="n">
-        <v>2187.207932640046</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="W44" t="n">
-        <v>1834.439277369932</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="X44" t="n">
-        <v>1834.439277369932</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="Y44" t="n">
-        <v>1594.080467256759</v>
+        <v>1762.143091250729</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>842.2405468607036</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C45" t="n">
-        <v>667.7875175795766</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D45" t="n">
-        <v>518.8531079183253</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E45" t="n">
-        <v>359.6156529128699</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="F45" t="n">
-        <v>359.6156529128699</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G45" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H45" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I45" t="n">
         <v>48.81975253256327</v>
@@ -7733,10 +7733,10 @@
         <v>349.2772920404815</v>
       </c>
       <c r="L45" t="n">
-        <v>540.2677802593125</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M45" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N45" t="n">
         <v>1557.865593173221</v>
@@ -7751,28 +7751,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R45" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S45" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T45" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U45" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V45" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W45" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X45" t="n">
-        <v>1218.216182645725</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1010.455883880772</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="C46" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="D46" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="E46" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F46" t="n">
         <v>48.81975253256327</v>
@@ -7836,22 +7836,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T46" t="n">
-        <v>412.9009368039367</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U46" t="n">
-        <v>269.6123316760934</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V46" t="n">
-        <v>269.6123316760934</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="W46" t="n">
-        <v>269.6123316760934</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="X46" t="n">
-        <v>269.6123316760934</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="Y46" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -8069,13 +8069,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,19 +8537,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>247.3552705420797</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8777,7 +8777,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>340.482471640322</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>447.9802256040019</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.40241131725696</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>61.27660229194304</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K21" t="n">
-        <v>139.2426449029008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>354.1197822338756</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>94.72888660085704</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9968,13 +9968,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>203.8252941185861</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>180.8033201453156</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,13 +10439,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>193.2401765302593</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>289.30534918541</v>
+        <v>354.1197822338756</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10910,7 +10910,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>275.6680385918563</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617152</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>139.2426449029007</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>275.6680385918563</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11302,10 +11302,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504499</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928321</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11381,13 +11381,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>180.8033201453154</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>101.1096467133931</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23269,10 +23269,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.005789270132</v>
+        <v>15.78190885340109</v>
       </c>
       <c r="H11" t="n">
         <v>326.1924309016296</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23339,16 +23339,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>118.8554155636029</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>25.71133221314659</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>71.50367393086256</v>
       </c>
       <c r="G13" t="n">
         <v>167.4092130247883</v>
@@ -23463,19 +23463,19 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S13" t="n">
         <v>213.8779974765521</v>
       </c>
       <c r="T13" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V13" t="n">
-        <v>103.8954701851124</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15.73240099612519</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,13 +23506,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>68.39969274597631</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>107.8575084623503</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23585,10 +23585,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.64958867533</v>
+        <v>118.8554155636029</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23627,7 +23627,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>127.2750392816566</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>99.03939889391035</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23706,22 +23706,22 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>212.3699225553132</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>202.7663945471191</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>317.5379844872383</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23816,10 +23816,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>116.479562392348</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23870,7 +23870,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>105.1308741609318</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>123.6655841054648</v>
+        <v>16.48505947671825</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R19" t="n">
         <v>151.1350615014064</v>
@@ -23946,19 +23946,19 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23980,7 +23980,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>414.005789270132</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S20" t="n">
-        <v>179.4658614532381</v>
+        <v>76.75452622999907</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>266.3351012139948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24053,7 +24053,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>10.94600644669883</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24101,13 +24101,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.05212128015944</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>58.94409199379615</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24171,10 +24171,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S22" t="n">
         <v>213.8779974765521</v>
@@ -24186,13 +24186,13 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>53.85139044585736</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>25.01110517218626</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I23" t="n">
         <v>160.4752923549255</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24271,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>314.9090295929111</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>92.88627525581313</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24302,10 +24302,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5335559456492</v>
+        <v>31.12404080756151</v>
       </c>
       <c r="I24" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24344,7 +24344,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24408,28 +24408,28 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R25" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>213.8779974765521</v>
+        <v>4.572686549298822</v>
       </c>
       <c r="T25" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>250.0667633803703</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24445,25 +24445,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>348.5933191331446</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>248.2022021776251</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24527,7 +24527,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>127.2750392816568</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24536,10 +24536,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24578,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>158.3910720113375</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>35.32644880324852</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>157.0547409226243</v>
       </c>
       <c r="I28" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>52.22830032617343</v>
@@ -24645,13 +24645,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T28" t="n">
         <v>225.4598605480533</v>
@@ -24660,7 +24660,7 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V28" t="n">
-        <v>31.25046932507379</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>338.5417824984713</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
-        <v>30.96085245850048</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24767,16 +24767,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1.078245769455719</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>13.32185961795371</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>4.572686549299078</v>
+        <v>4.572686549298851</v>
       </c>
       <c r="U31" t="n">
         <v>286.2872966473816</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,19 +24925,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I32" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>50.96527084328403</v>
       </c>
       <c r="V32" t="n">
-        <v>200.3172961720118</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25007,16 +25007,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>53.35061880807845</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25058,7 +25058,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>206.8512309729327</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.4092130247883</v>
@@ -25119,31 +25119,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S34" t="n">
         <v>213.8779974765521</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U34" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>30.24311172214112</v>
       </c>
       <c r="W34" t="n">
-        <v>114.6647333934112</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>172.595052796443</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>326.1924309016296</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>41.66858347344061</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25238,19 +25238,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>21.7414833360076</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.64958867533</v>
+        <v>116.479562392348</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.4092130247883</v>
@@ -25332,7 +25332,7 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I37" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>52.22830032617343</v>
@@ -25356,10 +25356,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S37" t="n">
         <v>213.8779974765521</v>
@@ -25368,7 +25368,7 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>107.5538245082433</v>
+        <v>211.1100787014276</v>
       </c>
     </row>
     <row r="38">
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>262.1552867737539</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>326.1924309016296</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>151.9082742667654</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
         <v>251.2418970482362</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25478,7 +25478,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -25487,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.745991555936655</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25526,7 +25526,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>206.8512309729326</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>21.97946373578817</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>157.0547409226243</v>
@@ -25593,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R40" t="n">
-        <v>102.8471686327005</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T40" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.005789270132</v>
+        <v>366.0255673754095</v>
       </c>
       <c r="H41" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25690,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>346.1202177067814</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>92.88627525581313</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5335559456492</v>
+        <v>91.21612896867103</v>
       </c>
       <c r="I42" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>157.0547409226243</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R43" t="n">
         <v>151.1350615014064</v>
@@ -25842,7 +25842,7 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U43" t="n">
-        <v>118.958928229922</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>169.7121059318771</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>156.2256246687824</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>148.282716644012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25955,7 +25955,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>141.3464342174088</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>118.8554155636027</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.4092130247883</v>
@@ -26076,10 +26076,10 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U46" t="n">
-        <v>144.4315775708167</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>64.39276504569469</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>568634.0036888084</v>
+        <v>568634.0036888085</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>568634.0036888084</v>
+        <v>568634.0036888085</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>568634.0036888084</v>
+        <v>568634.0036888085</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>568634.0036888084</v>
+        <v>568634.0036888085</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>568634.0036888084</v>
+        <v>568634.0036888085</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>568634.0036888084</v>
+        <v>568634.0036888086</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>568634.0036888084</v>
+        <v>568634.0036888085</v>
       </c>
     </row>
     <row r="16">
@@ -26319,43 +26319,43 @@
         <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
+        <v>406713.5901862449</v>
+      </c>
+      <c r="F2" t="n">
+        <v>406713.5901862447</v>
+      </c>
+      <c r="G2" t="n">
+        <v>406713.5901862446</v>
+      </c>
+      <c r="H2" t="n">
+        <v>406713.5901862447</v>
+      </c>
+      <c r="I2" t="n">
+        <v>406713.5901862447</v>
+      </c>
+      <c r="J2" t="n">
+        <v>406713.5901862447</v>
+      </c>
+      <c r="K2" t="n">
         <v>406713.5901862448</v>
       </c>
-      <c r="F2" t="n">
-        <v>406713.5901862449</v>
-      </c>
-      <c r="G2" t="n">
-        <v>406713.5901862449</v>
-      </c>
-      <c r="H2" t="n">
-        <v>406713.5901862449</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>406713.5901862448</v>
+      </c>
+      <c r="M2" t="n">
+        <v>406713.5901862446</v>
+      </c>
+      <c r="N2" t="n">
+        <v>406713.5901862447</v>
+      </c>
+      <c r="O2" t="n">
+        <v>406713.5901862448</v>
+      </c>
+      <c r="P2" t="n">
         <v>406713.590186245</v>
-      </c>
-      <c r="J2" t="n">
-        <v>406713.5901862449</v>
-      </c>
-      <c r="K2" t="n">
-        <v>406713.5901862449</v>
-      </c>
-      <c r="L2" t="n">
-        <v>406713.5901862449</v>
-      </c>
-      <c r="M2" t="n">
-        <v>406713.5901862449</v>
-      </c>
-      <c r="N2" t="n">
-        <v>406713.5901862451</v>
-      </c>
-      <c r="O2" t="n">
-        <v>406713.590186245</v>
-      </c>
-      <c r="P2" t="n">
-        <v>406713.5901862449</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92014.24528109307</v>
+        <v>92014.24528109304</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26499,13 +26499,13 @@
         <v>44136.03802033842</v>
       </c>
       <c r="L5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="M5" t="n">
         <v>44136.03802033842</v>
       </c>
       <c r="N5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="O5" t="n">
         <v>44136.03802033842</v>
@@ -26527,43 +26527,43 @@
         <v>263272.2627873722</v>
       </c>
       <c r="D6" t="n">
-        <v>263272.262787372</v>
+        <v>263272.2627873722</v>
       </c>
       <c r="E6" t="n">
-        <v>-33670.67301743334</v>
+        <v>-40639.59759116554</v>
       </c>
       <c r="F6" t="n">
-        <v>335764.626115347</v>
+        <v>328795.7015416145</v>
       </c>
       <c r="G6" t="n">
-        <v>335764.626115347</v>
+        <v>328795.7015416144</v>
       </c>
       <c r="H6" t="n">
-        <v>335764.6261153469</v>
+        <v>328795.7015416145</v>
       </c>
       <c r="I6" t="n">
-        <v>335764.626115347</v>
+        <v>328795.7015416145</v>
       </c>
       <c r="J6" t="n">
-        <v>272704.6835162407</v>
+        <v>265735.7589425083</v>
       </c>
       <c r="K6" t="n">
-        <v>335764.6261153469</v>
+        <v>328795.7015416146</v>
       </c>
       <c r="L6" t="n">
-        <v>335764.626115347</v>
+        <v>328795.7015416145</v>
       </c>
       <c r="M6" t="n">
-        <v>243750.3808342539</v>
+        <v>236781.4562605213</v>
       </c>
       <c r="N6" t="n">
-        <v>335764.6261153471</v>
+        <v>328795.7015416144</v>
       </c>
       <c r="O6" t="n">
-        <v>335764.626115347</v>
+        <v>328795.7015416146</v>
       </c>
       <c r="P6" t="n">
-        <v>335764.6261153469</v>
+        <v>328795.7015416148</v>
       </c>
     </row>
   </sheetData>
@@ -26819,13 +26819,13 @@
         <v>610.2469066570409</v>
       </c>
       <c r="L4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="M4" t="n">
         <v>610.2469066570409</v>
       </c>
       <c r="N4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="O4" t="n">
         <v>610.2469066570409</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793818</v>
+        <v>369.2326177793817</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,19 +27390,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>312.2938397833332</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>20.36928718381029</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,31 +27423,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27463,10 +27463,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>125.6477056446075</v>
       </c>
       <c r="E3" t="n">
-        <v>6.684197670952528</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27508,10 +27508,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27590,7 +27590,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>287.9287071236136</v>
       </c>
       <c r="E5" t="n">
-        <v>191.8237676856662</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,10 +27636,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,16 +27660,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>10.33136403017744</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27697,19 +27697,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>201.8487380088457</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>31.40269881826603</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>15.96843579630763</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27897,10 +27897,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>207.0637161124945</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>132.8264931597655</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27946,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>89.73620870693898</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>102.3410493332383</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28031,13 +28031,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>47.2544399028796</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28064,7 +28064,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H17" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I17" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J17" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K17" t="n">
         <v>164.9766803203078</v>
@@ -32247,7 +32247,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N17" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O17" t="n">
         <v>218.5211886152591</v>
@@ -32259,13 +32259,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R17" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S17" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T17" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U17" t="n">
         <v>0.1037558596002446</v>
@@ -32305,25 +32305,25 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H18" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I18" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J18" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K18" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L18" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M18" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N18" t="n">
         <v>180.479234222958</v>
@@ -32335,10 +32335,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R18" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S18" t="n">
         <v>12.88941730778304</v>
@@ -32347,7 +32347,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,40 +32384,40 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H19" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I19" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J19" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K19" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L19" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M19" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N19" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O19" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P19" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R19" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S19" t="n">
         <v>10.13860056042011</v>
@@ -32426,7 +32426,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H20" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I20" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J20" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K20" t="n">
         <v>164.9766803203078</v>
@@ -32484,7 +32484,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N20" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O20" t="n">
         <v>218.5211886152591</v>
@@ -32496,13 +32496,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R20" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S20" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T20" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U20" t="n">
         <v>0.1037558596002446</v>
@@ -32542,25 +32542,25 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H21" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I21" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J21" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K21" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L21" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M21" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N21" t="n">
         <v>180.479234222958</v>
@@ -32572,10 +32572,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R21" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S21" t="n">
         <v>12.88941730778304</v>
@@ -32584,7 +32584,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,40 +32621,40 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H22" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I22" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J22" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K22" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L22" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M22" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N22" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O22" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P22" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R22" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S22" t="n">
         <v>10.13860056042011</v>
@@ -32663,7 +32663,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H23" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I23" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J23" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K23" t="n">
         <v>164.9766803203078</v>
@@ -32721,7 +32721,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N23" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O23" t="n">
         <v>218.5211886152591</v>
@@ -32733,13 +32733,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R23" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S23" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T23" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U23" t="n">
         <v>0.1037558596002446</v>
@@ -32779,25 +32779,25 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H24" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I24" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J24" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K24" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L24" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M24" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N24" t="n">
         <v>180.479234222958</v>
@@ -32809,10 +32809,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R24" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S24" t="n">
         <v>12.88941730778304</v>
@@ -32821,7 +32821,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,40 +32858,40 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H25" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I25" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J25" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K25" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L25" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M25" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N25" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O25" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P25" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R25" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S25" t="n">
         <v>10.13860056042011</v>
@@ -32900,7 +32900,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H26" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I26" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J26" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K26" t="n">
         <v>164.9766803203078</v>
@@ -32958,7 +32958,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N26" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O26" t="n">
         <v>218.5211886152591</v>
@@ -32970,13 +32970,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R26" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S26" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T26" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U26" t="n">
         <v>0.1037558596002446</v>
@@ -33016,25 +33016,25 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H27" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I27" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J27" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K27" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L27" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M27" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N27" t="n">
         <v>180.479234222958</v>
@@ -33046,10 +33046,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R27" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S27" t="n">
         <v>12.88941730778304</v>
@@ -33058,7 +33058,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,40 +33095,40 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H28" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I28" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J28" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K28" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L28" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M28" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N28" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O28" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P28" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R28" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S28" t="n">
         <v>10.13860056042011</v>
@@ -33137,7 +33137,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H29" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I29" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J29" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K29" t="n">
         <v>164.9766803203078</v>
@@ -33195,7 +33195,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N29" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O29" t="n">
         <v>218.5211886152591</v>
@@ -33207,13 +33207,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R29" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S29" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T29" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U29" t="n">
         <v>0.1037558596002446</v>
@@ -33253,25 +33253,25 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H30" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I30" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J30" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K30" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L30" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M30" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N30" t="n">
         <v>180.479234222958</v>
@@ -33283,10 +33283,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R30" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S30" t="n">
         <v>12.88941730778304</v>
@@ -33295,7 +33295,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,40 +33332,40 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H31" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I31" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J31" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K31" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L31" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M31" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N31" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O31" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P31" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R31" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S31" t="n">
         <v>10.13860056042011</v>
@@ -33374,7 +33374,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H32" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I32" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J32" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K32" t="n">
         <v>164.9766803203078</v>
@@ -33432,7 +33432,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N32" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O32" t="n">
         <v>218.5211886152591</v>
@@ -33444,13 +33444,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R32" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S32" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T32" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U32" t="n">
         <v>0.1037558596002446</v>
@@ -33490,25 +33490,25 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H33" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I33" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J33" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K33" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L33" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M33" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N33" t="n">
         <v>180.479234222958</v>
@@ -33520,10 +33520,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R33" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S33" t="n">
         <v>12.88941730778304</v>
@@ -33532,7 +33532,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,40 +33569,40 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H34" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I34" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J34" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K34" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L34" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M34" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N34" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O34" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P34" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R34" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S34" t="n">
         <v>10.13860056042011</v>
@@ -33611,7 +33611,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H35" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I35" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J35" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K35" t="n">
         <v>164.9766803203078</v>
@@ -33669,7 +33669,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N35" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O35" t="n">
         <v>218.5211886152591</v>
@@ -33681,13 +33681,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R35" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S35" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T35" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U35" t="n">
         <v>0.1037558596002446</v>
@@ -33727,25 +33727,25 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H36" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I36" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J36" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K36" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L36" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M36" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N36" t="n">
         <v>180.479234222958</v>
@@ -33757,10 +33757,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R36" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S36" t="n">
         <v>12.88941730778304</v>
@@ -33769,7 +33769,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,40 +33806,40 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H37" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I37" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J37" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K37" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L37" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M37" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N37" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O37" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P37" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R37" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S37" t="n">
         <v>10.13860056042011</v>
@@ -33848,7 +33848,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34710,7 +34710,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34789,13 +34789,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34944,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,19 +35257,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35497,7 +35497,7 @@
         <v>382.95671022767</v>
       </c>
       <c r="M12" t="n">
-        <v>374.1740901080621</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N12" t="n">
         <v>528.4798964831782</v>
@@ -35509,7 +35509,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>238.6780311009465</v>
@@ -35737,7 +35737,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N15" t="n">
-        <v>497.1177477436266</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O15" t="n">
         <v>416.3693146658877</v>
@@ -35746,7 +35746,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K17" t="n">
         <v>269.032241846492</v>
@@ -35892,7 +35892,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M17" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N17" t="n">
         <v>439.3515785419015</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L18" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M18" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N18" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O18" t="n">
         <v>416.3693146658877</v>
@@ -35983,7 +35983,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L19" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M19" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N19" t="n">
         <v>133.158287785359</v>
@@ -36059,7 +36059,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P19" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K20" t="n">
         <v>269.032241846492</v>
@@ -36129,7 +36129,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M20" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N20" t="n">
         <v>439.3515785419015</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>113.4554389912688</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L21" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M21" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N21" t="n">
-        <v>528.4798964831782</v>
+        <v>403.2573043735003</v>
       </c>
       <c r="O21" t="n">
         <v>416.3693146658877</v>
@@ -36281,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L22" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M22" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N22" t="n">
         <v>133.158287785359</v>
@@ -36296,7 +36296,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P22" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K23" t="n">
         <v>269.032241846492</v>
@@ -36366,7 +36366,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M23" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N23" t="n">
         <v>439.3515785419015</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L24" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M24" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N24" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O24" t="n">
         <v>416.3693146658877</v>
@@ -36457,7 +36457,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L25" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M25" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N25" t="n">
         <v>133.158287785359</v>
@@ -36533,7 +36533,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P25" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K26" t="n">
         <v>269.032241846492</v>
@@ -36603,7 +36603,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M26" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N26" t="n">
         <v>439.3515785419015</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>64.8144330484658</v>
+        <v>33.45228430891401</v>
       </c>
       <c r="K27" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L27" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M27" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N27" t="n">
         <v>528.4798964831782</v>
       </c>
       <c r="O27" t="n">
-        <v>226.3322895077443</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P27" t="n">
         <v>316.9982669508155</v>
       </c>
       <c r="Q27" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,13 +36755,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L28" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M28" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N28" t="n">
         <v>133.158287785359</v>
@@ -36770,7 +36770,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P28" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K29" t="n">
         <v>269.032241846492</v>
@@ -36840,7 +36840,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M29" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N29" t="n">
         <v>439.3515785419015</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L30" t="n">
-        <v>192.9196850695264</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M30" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N30" t="n">
         <v>528.4798964831782</v>
@@ -36931,7 +36931,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q30" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,13 +36992,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L31" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M31" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N31" t="n">
         <v>133.158287785359</v>
@@ -37007,7 +37007,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P31" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K32" t="n">
         <v>269.032241846492</v>
@@ -37077,7 +37077,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M32" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N32" t="n">
         <v>439.3515785419015</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L33" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M33" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N33" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O33" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P33" t="n">
-        <v>316.9982669508155</v>
+        <v>191.7756748411377</v>
       </c>
       <c r="Q33" t="n">
         <v>158.6748764185921</v>
@@ -37229,13 +37229,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L34" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M34" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N34" t="n">
         <v>133.158287785359</v>
@@ -37244,7 +37244,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P34" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K35" t="n">
         <v>269.032241846492</v>
@@ -37314,7 +37314,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M35" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N35" t="n">
         <v>439.3515785419015</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L36" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M36" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N36" t="n">
-        <v>338.4428713250347</v>
+        <v>403.2573043735003</v>
       </c>
       <c r="O36" t="n">
         <v>416.3693146658877</v>
@@ -37466,13 +37466,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L37" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M37" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N37" t="n">
         <v>133.158287785359</v>
@@ -37481,7 +37481,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P37" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>238.6780311009466</v>
@@ -37630,7 +37630,7 @@
         <v>382.95671022767</v>
       </c>
       <c r="M39" t="n">
-        <v>309.3596570595963</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N39" t="n">
         <v>528.4798964831782</v>
@@ -37642,7 +37642,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q39" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891457</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>238.6780311009466</v>
+        <v>113.4554389912687</v>
       </c>
       <c r="L42" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M42" t="n">
-        <v>309.3596570595963</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N42" t="n">
         <v>528.4798964831782</v>
@@ -38022,10 +38022,10 @@
         <v>269.032241846492</v>
       </c>
       <c r="L44" t="n">
-        <v>386.5629597537834</v>
+        <v>386.5629597537828</v>
       </c>
       <c r="M44" t="n">
-        <v>446.9000637909527</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N44" t="n">
         <v>439.3515785419015</v>
@@ -38101,13 +38101,13 @@
         <v>238.6780311009466</v>
       </c>
       <c r="L45" t="n">
-        <v>192.9196850695263</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M45" t="n">
         <v>499.39668221774</v>
       </c>
       <c r="N45" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O45" t="n">
         <v>416.3693146658877</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2189850.157731203</v>
+        <v>2225168.913056972</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.9758914462</v>
+        <v>426806.9758914467</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7376106.468161051</v>
+        <v>7376106.468161048</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>80.83011447495538</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>103.0088977318019</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -743,25 +743,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>21.7973599200313</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>186.2783301735246</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -816,61 +816,61 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>66.75433449706937</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>55.71194092525318</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -949,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -983,16 +983,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>174.3702863852114</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>98.15811719498932</v>
       </c>
     </row>
     <row r="7">
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>87.7061602166668</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1156,7 +1156,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -1186,13 +1186,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>120.6885423576403</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>123.6003327477366</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>88.61775520402705</v>
       </c>
     </row>
     <row r="10">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>287.1577117094687</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>398.2238804167309</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
         <v>217.4184586216305</v>
@@ -1457,19 +1457,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>38.78966489179808</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>65.50479675552441</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>73.91737409206868</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>47.23959131629395</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
         <v>160.4752923549255</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.39969274597632</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
-        <v>143.3843885858859</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>195.8843302002678</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,22 +1691,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>17.79417311172712</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H15" t="n">
-        <v>105.5335559456492</v>
+        <v>54.55879030882556</v>
       </c>
       <c r="I15" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80.79258128802695</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>166.5157685542568</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>64.39238558502345</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,10 +1861,10 @@
         <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
-        <v>326.1924309016296</v>
+        <v>213.0115391994321</v>
       </c>
       <c r="I17" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T18" t="n">
         <v>197.3677099213027</v>
@@ -1982,7 +1982,7 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V18" t="n">
-        <v>127.6697129884935</v>
+        <v>196.9877088776657</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>150.7617616219096</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>13.08993799274016</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2083,22 +2083,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>111.2028868423314</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>102.7113352232391</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S21" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>139.1257777416204</v>
       </c>
       <c r="U21" t="n">
         <v>225.8957288909827</v>
       </c>
       <c r="V21" t="n">
-        <v>231.7484658692658</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>108.3027291048317</v>
+        <v>81.02828297723634</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>340.2617865988213</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>35.22593727570392</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2411,13 +2411,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H24" t="n">
-        <v>74.40951513808766</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S24" t="n">
         <v>158.7937537960548</v>
@@ -2456,7 +2456,7 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>209.3053109272533</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>73.66757925108466</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2563,19 +2563,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.73049688630265</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U26" t="n">
-        <v>3.039694870611092</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>158.7937537960548</v>
@@ -2690,7 +2690,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U27" t="n">
-        <v>67.50465687964518</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>104.3650207500203</v>
       </c>
     </row>
     <row r="28">
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>131.9203722953793</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>56.95166885946595</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I28" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>26.73110927253622</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>303.1509671180816</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2879,13 +2879,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>156.5668346859452</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.64958867533</v>
+        <v>105.5255478677685</v>
       </c>
       <c r="H30" t="n">
         <v>105.5335559456492</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S30" t="n">
         <v>158.7937537960548</v>
@@ -2930,13 +2930,13 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>123.4415842871428</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.8871739987544</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3031,25 +3031,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>227.776648828499</v>
       </c>
       <c r="I32" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
-        <v>200.2766262049522</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3125,10 +3125,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>158.7937537960548</v>
+        <v>122.9808755242954</v>
       </c>
       <c r="T33" t="n">
         <v>197.3677099213027</v>
@@ -3170,7 +3170,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>44.84375218798685</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>5.31513645273509</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>221.8945316016869</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>123.0508268606252</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>328.0625172050284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3350,7 +3350,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3359,7 +3359,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>20.17002628298199</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>105.5335559456492</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S36" t="n">
         <v>158.7937537960548</v>
@@ -3401,7 +3401,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8957288909827</v>
+        <v>98.62068960932602</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1.266108004029911</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>7.474574650667191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>414.005789270132</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>27.55758718647276</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>264.2840229462446</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3590,10 +3590,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>38.78966489179808</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>136.64958867533</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S39" t="n">
         <v>158.7937537960548</v>
@@ -3638,7 +3638,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U39" t="n">
-        <v>19.04449791805008</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>126.6360092824242</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>47.47529300550337</v>
       </c>
     </row>
     <row r="41">
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>47.98022189472248</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>113.2675895012519</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,7 +3821,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3833,10 +3833,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>14.31742697697815</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>65.50479675552441</v>
@@ -3878,7 +3878,7 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>211.0591038134178</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>115.1779363007902</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>55.99754945716007</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>226.5082169946981</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,16 +3985,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
-        <v>326.1924309016296</v>
+        <v>206.0382274072001</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T44" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4067,13 +4067,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>3.722778175975093</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.64958867533</v>
+        <v>100.8367104035704</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>209.0555160862694</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>154.1918883064001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>591.4512093066566</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C2" t="n">
-        <v>591.4512093066566</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D2" t="n">
-        <v>591.4512093066566</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E2" t="n">
-        <v>591.4512093066566</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F2" t="n">
-        <v>348.0024326625565</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
         <v>243.9530410142718</v>
@@ -4366,16 +4366,16 @@
         <v>591.4512093066566</v>
       </c>
       <c r="V2" t="n">
-        <v>591.4512093066566</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W2" t="n">
-        <v>591.4512093066566</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X2" t="n">
-        <v>591.4512093066566</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y2" t="n">
-        <v>591.4512093066566</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>689.4702815141908</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C3" t="n">
-        <v>689.4702815141908</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D3" t="n">
-        <v>667.4527462414319</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E3" t="n">
-        <v>508.2152912359765</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F3" t="n">
-        <v>361.6807332628614</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G3" t="n">
-        <v>222.9499078454769</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>689.4702815141908</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V3" t="n">
-        <v>689.4702815141908</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W3" t="n">
-        <v>689.4702815141908</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X3" t="n">
-        <v>689.4702815141908</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y3" t="n">
-        <v>689.4702815141908</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="4">
@@ -4518,22 +4518,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>333.7844730889342</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C5" t="n">
-        <v>333.7844730889342</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D5" t="n">
-        <v>266.3558523848238</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E5" t="n">
-        <v>266.3558523848238</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F5" t="n">
         <v>259.4103516356203</v>
@@ -4597,22 +4597,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>577.2332497330343</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>333.7844730889342</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>333.7844730889342</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>333.7844730889342</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X5" t="n">
-        <v>333.7844730889342</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y5" t="n">
-        <v>333.7844730889342</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>787.9255531013317</v>
+        <v>595.5226757151819</v>
       </c>
       <c r="C6" t="n">
-        <v>613.4725238202047</v>
+        <v>421.0696464340549</v>
       </c>
       <c r="D6" t="n">
-        <v>464.5381141589534</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="E6" t="n">
-        <v>305.3006591534979</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F6" t="n">
-        <v>158.7661011803829</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
         <v>20.03527576299844</v>
@@ -4655,7 +4655,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
         <v>542.809531908403</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9255531013317</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>787.9255531013317</v>
+        <v>763.7380127352499</v>
       </c>
     </row>
     <row r="7">
@@ -4710,22 +4710,22 @@
         <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>254.2858631377404</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C8" t="n">
-        <v>254.2858631377404</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D8" t="n">
-        <v>254.2858631377404</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E8" t="n">
-        <v>254.2858631377404</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F8" t="n">
-        <v>247.340362388537</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>376.1934816808115</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>376.1934816808115</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>254.2858631377404</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>254.2858631377404</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>254.2858631377404</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>254.2858631377404</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>362.4348659156472</v>
+        <v>706.3289344460964</v>
       </c>
       <c r="C9" t="n">
-        <v>362.4348659156472</v>
+        <v>531.8759051649694</v>
       </c>
       <c r="D9" t="n">
-        <v>362.4348659156472</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="E9" t="n">
-        <v>362.4348659156472</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G9" t="n">
         <v>223.7040404982626</v>
@@ -4886,13 +4886,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
         <v>725.4530095217538</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>362.4348659156472</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>362.4348659156472</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>362.4348659156472</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>362.4348659156472</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>362.4348659156472</v>
+        <v>874.5442714661644</v>
       </c>
     </row>
     <row r="10">
@@ -4950,13 +4950,13 @@
         <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
         <v>41.77557929797318</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>451.066096387847</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C11" t="n">
-        <v>451.066096387847</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D11" t="n">
-        <v>451.066096387847</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E11" t="n">
-        <v>451.066096387847</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F11" t="n">
-        <v>451.066096387847</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G11" t="n">
         <v>48.81975253256327</v>
@@ -5041,13 +5041,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J11" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K11" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L11" t="n">
-        <v>795.0052981540043</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M11" t="n">
         <v>1237.436361307048</v>
@@ -5065,28 +5065,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S11" t="n">
-        <v>2371.897027894854</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T11" t="n">
-        <v>2152.282423226541</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="U11" t="n">
-        <v>1898.502729238423</v>
+        <v>1786.314680039169</v>
       </c>
       <c r="V11" t="n">
-        <v>1567.439841894853</v>
+        <v>1455.251792695598</v>
       </c>
       <c r="W11" t="n">
-        <v>1214.671186624739</v>
+        <v>1102.483137425484</v>
       </c>
       <c r="X11" t="n">
-        <v>841.2054283636587</v>
+        <v>729.017379164404</v>
       </c>
       <c r="Y11" t="n">
-        <v>451.066096387847</v>
+        <v>338.8780471885923</v>
       </c>
     </row>
     <row r="12">
@@ -5105,16 +5105,16 @@
         <v>398.7971326015548</v>
       </c>
       <c r="E12" t="n">
-        <v>359.6156529128699</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F12" t="n">
-        <v>359.6156529128699</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G12" t="n">
-        <v>221.5857653620315</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="H12" t="n">
-        <v>114.9862139017798</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="I12" t="n">
         <v>48.81975253256327</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>123.4837667669761</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C13" t="n">
-        <v>123.4837667669761</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D13" t="n">
-        <v>123.4837667669761</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E13" t="n">
-        <v>123.4837667669761</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F13" t="n">
         <v>48.81975253256327</v>
@@ -5229,22 +5229,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T13" t="n">
-        <v>412.9009368039367</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U13" t="n">
-        <v>412.9009368039367</v>
+        <v>592.9214107754108</v>
       </c>
       <c r="V13" t="n">
-        <v>412.9009368039367</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W13" t="n">
-        <v>123.4837667669761</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X13" t="n">
-        <v>123.4837667669761</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y13" t="n">
-        <v>123.4837667669761</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>629.1036733659547</v>
+        <v>1369.576882096602</v>
       </c>
       <c r="C14" t="n">
-        <v>629.1036733659547</v>
+        <v>1369.576882096602</v>
       </c>
       <c r="D14" t="n">
-        <v>629.1036733659547</v>
+        <v>1369.576882096602</v>
       </c>
       <c r="E14" t="n">
-        <v>629.1036733659547</v>
+        <v>1369.576882096602</v>
       </c>
       <c r="F14" t="n">
-        <v>629.1036733659547</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="G14" t="n">
-        <v>210.9160074365284</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H14" t="n">
         <v>210.9160074365284</v>
@@ -5278,13 +5278,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J14" t="n">
-        <v>145.9660485697318</v>
+        <v>145.9660485697323</v>
       </c>
       <c r="K14" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977593</v>
       </c>
       <c r="L14" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M14" t="n">
         <v>1237.436361307048</v>
@@ -5302,28 +5302,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R14" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S14" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T14" t="n">
-        <v>2221.37302195985</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U14" t="n">
-        <v>2076.540306216531</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="V14" t="n">
-        <v>1745.47741887296</v>
+        <v>1567.439841894853</v>
       </c>
       <c r="W14" t="n">
-        <v>1392.708763602846</v>
+        <v>1369.576882096602</v>
       </c>
       <c r="X14" t="n">
-        <v>1019.243005341766</v>
+        <v>1369.576882096602</v>
       </c>
       <c r="Y14" t="n">
-        <v>629.1036733659547</v>
+        <v>1369.576882096602</v>
       </c>
     </row>
     <row r="15">
@@ -5339,19 +5339,19 @@
         <v>547.7315422628061</v>
       </c>
       <c r="D15" t="n">
-        <v>398.7971326015548</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="E15" t="n">
-        <v>239.5596775960993</v>
+        <v>388.4940872573506</v>
       </c>
       <c r="F15" t="n">
-        <v>239.5596775960993</v>
+        <v>241.9595292842356</v>
       </c>
       <c r="G15" t="n">
-        <v>221.5857653620315</v>
+        <v>103.9296417333972</v>
       </c>
       <c r="H15" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I15" t="n">
         <v>48.81975253256327</v>
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.81975253256327</v>
+        <v>217.7559354604702</v>
       </c>
       <c r="C16" t="n">
         <v>48.81975253256327</v>
@@ -5451,37 +5451,37 @@
         <v>467.9270190420812</v>
       </c>
       <c r="O16" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801509</v>
       </c>
       <c r="P16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="Q16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="R16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="S16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="T16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="U16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="V16" t="n">
-        <v>640.638169680758</v>
+        <v>385.953681474871</v>
       </c>
       <c r="W16" t="n">
-        <v>351.2209996437974</v>
+        <v>385.953681474871</v>
       </c>
       <c r="X16" t="n">
-        <v>351.2209996437974</v>
+        <v>217.7559354604702</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.4284205002673</v>
+        <v>217.7559354604702</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1434.619695818848</v>
+        <v>1847.90726369877</v>
       </c>
       <c r="C17" t="n">
-        <v>1434.619695818848</v>
+        <v>1478.944746758359</v>
       </c>
       <c r="D17" t="n">
-        <v>1434.619695818848</v>
+        <v>1478.944746758359</v>
       </c>
       <c r="E17" t="n">
-        <v>1369.576882096602</v>
+        <v>1093.156494160114</v>
       </c>
       <c r="F17" t="n">
-        <v>958.5909773069948</v>
+        <v>682.1705893705068</v>
       </c>
       <c r="G17" t="n">
-        <v>540.4033113775685</v>
+        <v>263.9829234410806</v>
       </c>
       <c r="H17" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I17" t="n">
         <v>48.81975253256327</v>
@@ -5518,10 +5518,10 @@
         <v>145.966048569732</v>
       </c>
       <c r="K17" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L17" t="n">
-        <v>795.0052981540043</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M17" t="n">
         <v>1237.436361307048</v>
@@ -5539,28 +5539,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R17" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S17" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T17" t="n">
-        <v>2152.282423226541</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U17" t="n">
-        <v>2152.282423226541</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="V17" t="n">
-        <v>1821.21953588297</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="W17" t="n">
-        <v>1821.21953588297</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="X17" t="n">
-        <v>1821.21953588297</v>
+        <v>1847.90726369877</v>
       </c>
       <c r="Y17" t="n">
-        <v>1821.21953588297</v>
+        <v>1847.90726369877</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.7751048338188</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C18" t="n">
-        <v>814.3220755526918</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D18" t="n">
-        <v>665.3876658914405</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E18" t="n">
-        <v>506.150210885985</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F18" t="n">
-        <v>359.6156529128699</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G18" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H18" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I18" t="n">
         <v>48.81975253256327</v>
@@ -5597,10 +5597,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K18" t="n">
-        <v>285.1110033225004</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L18" t="n">
-        <v>664.2381464478937</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M18" t="n">
         <v>1158.640861843456</v>
@@ -5618,28 +5618,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R18" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S18" t="n">
-        <v>2383.337730684675</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T18" t="n">
-        <v>2183.976407531844</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U18" t="n">
-        <v>1955.798903601558</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.839597552575</v>
+        <v>1654.073584723107</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.602240824373</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.750740618841</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.990441853887</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="19">
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C19" t="n">
-        <v>198.936391944899</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D19" t="n">
         <v>48.81975253256327</v>
@@ -5682,43 +5682,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M19" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N19" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O19" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U19" t="n">
-        <v>640.6381696807582</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="V19" t="n">
-        <v>640.6381696807582</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W19" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X19" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y19" t="n">
-        <v>351.2209996437976</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1187.033872869333</v>
+        <v>876.4214573974348</v>
       </c>
       <c r="C20" t="n">
-        <v>818.0713559289213</v>
+        <v>876.4214573974348</v>
       </c>
       <c r="D20" t="n">
-        <v>459.8056573221708</v>
+        <v>876.4214573974348</v>
       </c>
       <c r="E20" t="n">
-        <v>459.8056573221708</v>
+        <v>490.6332047991905</v>
       </c>
       <c r="F20" t="n">
-        <v>48.81975253256327</v>
+        <v>490.6332047991905</v>
       </c>
       <c r="G20" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H20" t="n">
         <v>48.81975253256327</v>
@@ -5752,13 +5752,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J20" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K20" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
@@ -5779,25 +5779,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S20" t="n">
-        <v>2337.238803170346</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T20" t="n">
-        <v>2337.238803170346</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="U20" t="n">
-        <v>2337.238803170346</v>
+        <v>2005.929284707482</v>
       </c>
       <c r="V20" t="n">
-        <v>2337.238803170346</v>
+        <v>2005.929284707482</v>
       </c>
       <c r="W20" t="n">
-        <v>2337.238803170346</v>
+        <v>1653.160629437368</v>
       </c>
       <c r="X20" t="n">
-        <v>1963.773044909266</v>
+        <v>1653.160629437368</v>
       </c>
       <c r="Y20" t="n">
-        <v>1573.633712933455</v>
+        <v>1263.021297461557</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>922.6086434646021</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C21" t="n">
-        <v>748.1556141834751</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D21" t="n">
-        <v>599.2212045222238</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E21" t="n">
-        <v>439.9837495167684</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F21" t="n">
-        <v>293.4491915436533</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G21" t="n">
-        <v>155.4193039928149</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H21" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I21" t="n">
         <v>48.81975253256327</v>
@@ -5834,22 +5834,22 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K21" t="n">
-        <v>285.1110033225004</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L21" t="n">
-        <v>664.2381464478937</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M21" t="n">
         <v>1158.640861843456</v>
       </c>
       <c r="N21" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O21" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q21" t="n">
         <v>2440.987626628164</v>
@@ -5861,22 +5861,22 @@
         <v>2222.939999577549</v>
       </c>
       <c r="T21" t="n">
-        <v>2222.939999577549</v>
+        <v>2082.408910949649</v>
       </c>
       <c r="U21" t="n">
-        <v>1994.762495647263</v>
+        <v>1854.231407019364</v>
       </c>
       <c r="V21" t="n">
-        <v>1760.673136183358</v>
+        <v>1619.079298787621</v>
       </c>
       <c r="W21" t="n">
-        <v>1506.435779455157</v>
+        <v>1364.84194205942</v>
       </c>
       <c r="X21" t="n">
-        <v>1298.584279249624</v>
+        <v>1156.990441853887</v>
       </c>
       <c r="Y21" t="n">
-        <v>1090.82398048467</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="22">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>158.2164485980498</v>
+        <v>130.6665030146202</v>
       </c>
       <c r="C22" t="n">
         <v>48.81975253256327</v>
@@ -5919,43 +5919,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M22" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N22" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O22" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T22" t="n">
-        <v>412.9009368039367</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U22" t="n">
-        <v>412.9009368039367</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="V22" t="n">
-        <v>158.2164485980498</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="W22" t="n">
-        <v>158.2164485980498</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="X22" t="n">
-        <v>158.2164485980498</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="Y22" t="n">
-        <v>158.2164485980498</v>
+        <v>130.6665030146202</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1221.692097593841</v>
+        <v>1409.052095095974</v>
       </c>
       <c r="C23" t="n">
-        <v>877.9933232515971</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="D23" t="n">
-        <v>877.9933232515971</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="E23" t="n">
-        <v>877.9933232515971</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="F23" t="n">
-        <v>467.0074184619895</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="G23" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H23" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I23" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J23" t="n">
-        <v>145.9660485697318</v>
+        <v>145.9660485697319</v>
       </c>
       <c r="K23" t="n">
         <v>412.307967997759</v>
@@ -6007,34 +6007,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P23" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q23" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R23" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S23" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T23" t="n">
-        <v>2371.897027894854</v>
+        <v>2221.373021959851</v>
       </c>
       <c r="U23" t="n">
-        <v>2371.897027894854</v>
+        <v>2221.373021959851</v>
       </c>
       <c r="V23" t="n">
-        <v>2371.897027894854</v>
+        <v>2185.791267135907</v>
       </c>
       <c r="W23" t="n">
-        <v>2371.897027894854</v>
+        <v>2185.791267135907</v>
       </c>
       <c r="X23" t="n">
-        <v>1998.431269633774</v>
+        <v>2185.791267135907</v>
       </c>
       <c r="Y23" t="n">
-        <v>1608.291937657963</v>
+        <v>1795.651935160096</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>957.3366797756757</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C24" t="n">
-        <v>782.8836504945488</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D24" t="n">
-        <v>633.9492408332975</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E24" t="n">
-        <v>474.711785827842</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F24" t="n">
-        <v>328.177227854727</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G24" t="n">
-        <v>190.1473403038886</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H24" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I24" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J24" t="n">
-        <v>48.81975253256327</v>
+        <v>81.93751399838828</v>
       </c>
       <c r="K24" t="n">
-        <v>285.1110033225004</v>
+        <v>318.2287647883253</v>
       </c>
       <c r="L24" t="n">
-        <v>664.2381464478937</v>
+        <v>697.3559079137186</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.640861843456</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N24" t="n">
-        <v>1681.835959361802</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O24" t="n">
-        <v>2094.041580881031</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.869865162339</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q24" t="n">
         <v>2440.987626628164</v>
@@ -6104,16 +6104,16 @@
         <v>1795.401172494432</v>
       </c>
       <c r="V24" t="n">
-        <v>1795.401172494432</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W24" t="n">
-        <v>1541.163815766231</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X24" t="n">
-        <v>1333.312315560698</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y24" t="n">
-        <v>1125.552016795744</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="25">
@@ -6156,37 +6156,37 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M25" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N25" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O25" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P25" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q25" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R25" t="n">
-        <v>487.9764913965093</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S25" t="n">
-        <v>276.5569854093848</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T25" t="n">
-        <v>48.81975253256327</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U25" t="n">
-        <v>48.81975253256327</v>
+        <v>566.2264734675412</v>
       </c>
       <c r="V25" t="n">
-        <v>48.81975253256327</v>
+        <v>566.2264734675412</v>
       </c>
       <c r="W25" t="n">
-        <v>48.81975253256327</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="X25" t="n">
         <v>48.81975253256327</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1605.221538798759</v>
+        <v>1203.988237734841</v>
       </c>
       <c r="C26" t="n">
-        <v>1236.259021858348</v>
+        <v>835.0257207944294</v>
       </c>
       <c r="D26" t="n">
-        <v>877.9933232515971</v>
+        <v>476.7600221876789</v>
       </c>
       <c r="E26" t="n">
-        <v>877.9933232515971</v>
+        <v>90.97176958943464</v>
       </c>
       <c r="F26" t="n">
-        <v>467.0074184619895</v>
+        <v>90.97176958943464</v>
       </c>
       <c r="G26" t="n">
-        <v>48.81975253256327</v>
+        <v>90.97176958943464</v>
       </c>
       <c r="H26" t="n">
-        <v>48.81975253256327</v>
+        <v>90.97176958943464</v>
       </c>
       <c r="I26" t="n">
         <v>48.81975253256327</v>
@@ -6250,28 +6250,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S26" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T26" t="n">
-        <v>2371.897027894854</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U26" t="n">
-        <v>2368.826629035651</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V26" t="n">
-        <v>2368.826629035651</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="W26" t="n">
-        <v>2368.826629035651</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="X26" t="n">
-        <v>1995.360870774571</v>
+        <v>1594.127569710653</v>
       </c>
       <c r="Y26" t="n">
-        <v>1605.221538798759</v>
+        <v>1203.988237734841</v>
       </c>
     </row>
     <row r="27">
@@ -6305,13 +6305,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J27" t="n">
-        <v>81.93751399838814</v>
+        <v>81.93751399838828</v>
       </c>
       <c r="K27" t="n">
-        <v>318.2287647883252</v>
+        <v>318.2287647883253</v>
       </c>
       <c r="L27" t="n">
-        <v>697.3559079137185</v>
+        <v>697.3559079137186</v>
       </c>
       <c r="M27" t="n">
         <v>1191.758623309281</v>
@@ -6329,25 +6329,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R27" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S27" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T27" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U27" t="n">
-        <v>1955.392154324066</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V27" t="n">
-        <v>1720.240046092323</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W27" t="n">
-        <v>1466.002689364122</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X27" t="n">
-        <v>1258.151189158589</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y27" t="n">
         <v>1050.390890393635</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="C28" t="n">
-        <v>507.3852683722943</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="D28" t="n">
-        <v>357.2686289599586</v>
+        <v>355.3739985620517</v>
       </c>
       <c r="E28" t="n">
-        <v>357.2686289599586</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="F28" t="n">
-        <v>357.2686289599586</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="G28" t="n">
-        <v>188.1684137834047</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H28" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I28" t="n">
         <v>48.81975253256327</v>
@@ -6393,43 +6393,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M28" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N28" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O28" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P28" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q28" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R28" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S28" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T28" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="U28" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="V28" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="W28" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="X28" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="Y28" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039365</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1290.782696327151</v>
+        <v>1154.76042100978</v>
       </c>
       <c r="C29" t="n">
-        <v>1263.781575849841</v>
+        <v>1154.76042100978</v>
       </c>
       <c r="D29" t="n">
-        <v>1263.781575849841</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="E29" t="n">
-        <v>877.9933232515971</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="F29" t="n">
-        <v>467.0074184619895</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G29" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H29" t="n">
         <v>48.81975253256327</v>
@@ -6463,13 +6463,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J29" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K29" t="n">
         <v>412.3079679977591</v>
       </c>
       <c r="L29" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M29" t="n">
         <v>1237.436361307048</v>
@@ -6481,7 +6481,7 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P29" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q29" t="n">
         <v>2440.987626628164</v>
@@ -6496,19 +6496,19 @@
         <v>2440.987626628164</v>
       </c>
       <c r="U29" t="n">
-        <v>2440.987626628164</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="V29" t="n">
-        <v>2440.987626628164</v>
+        <v>1880.994834540974</v>
       </c>
       <c r="W29" t="n">
-        <v>2440.987626628164</v>
+        <v>1528.22617927086</v>
       </c>
       <c r="X29" t="n">
-        <v>2067.521868367084</v>
+        <v>1154.76042100978</v>
       </c>
       <c r="Y29" t="n">
-        <v>1677.382536391272</v>
+        <v>1154.76042100978</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.6859676929544</v>
+        <v>957.3366797756757</v>
       </c>
       <c r="C30" t="n">
-        <v>813.2329384118274</v>
+        <v>782.8836504945488</v>
       </c>
       <c r="D30" t="n">
-        <v>664.2985287505761</v>
+        <v>633.9492408332975</v>
       </c>
       <c r="E30" t="n">
-        <v>506.150210885985</v>
+        <v>474.711785827842</v>
       </c>
       <c r="F30" t="n">
-        <v>359.6156529128699</v>
+        <v>328.177227854727</v>
       </c>
       <c r="G30" t="n">
         <v>221.5857653620315</v>
@@ -6545,10 +6545,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K30" t="n">
-        <v>285.1110033225004</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L30" t="n">
-        <v>664.2381464478937</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M30" t="n">
         <v>1158.640861843456</v>
@@ -6566,28 +6566,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R30" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S30" t="n">
-        <v>2280.589895521037</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T30" t="n">
-        <v>2081.228572368206</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U30" t="n">
-        <v>1853.051068437921</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V30" t="n">
-        <v>1617.898960206178</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="W30" t="n">
-        <v>1363.661603477976</v>
+        <v>1541.163815766231</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.661603477976</v>
+        <v>1333.312315560698</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.901304713022</v>
+        <v>1125.552016795744</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>48.81975253256327</v>
+        <v>640.638169680758</v>
       </c>
       <c r="C31" t="n">
-        <v>48.81975253256327</v>
+        <v>640.638169680758</v>
       </c>
       <c r="D31" t="n">
-        <v>48.81975253256327</v>
+        <v>490.5215302684222</v>
       </c>
       <c r="E31" t="n">
-        <v>48.81975253256327</v>
+        <v>342.6084366860291</v>
       </c>
       <c r="F31" t="n">
-        <v>48.81975253256327</v>
+        <v>342.6084366860291</v>
       </c>
       <c r="G31" t="n">
-        <v>48.81975253256327</v>
+        <v>173.5082215094752</v>
       </c>
       <c r="H31" t="n">
         <v>48.81975253256327</v>
@@ -6630,43 +6630,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M31" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N31" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O31" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P31" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q31" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R31" t="n">
-        <v>487.9764913965093</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S31" t="n">
-        <v>271.9381101070627</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T31" t="n">
-        <v>48.81975253256327</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U31" t="n">
-        <v>48.81975253256327</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V31" t="n">
-        <v>48.81975253256327</v>
+        <v>640.638169680758</v>
       </c>
       <c r="W31" t="n">
-        <v>48.81975253256327</v>
+        <v>640.638169680758</v>
       </c>
       <c r="X31" t="n">
-        <v>48.81975253256327</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Y31" t="n">
-        <v>48.81975253256327</v>
+        <v>640.638169680758</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1040.089578155562</v>
+        <v>1444.633849919917</v>
       </c>
       <c r="C32" t="n">
-        <v>1040.089578155562</v>
+        <v>1075.671332979505</v>
       </c>
       <c r="D32" t="n">
-        <v>1040.089578155562</v>
+        <v>1075.671332979505</v>
       </c>
       <c r="E32" t="n">
-        <v>1040.089578155562</v>
+        <v>689.8830803812607</v>
       </c>
       <c r="F32" t="n">
-        <v>629.1036733659547</v>
+        <v>278.8971755916531</v>
       </c>
       <c r="G32" t="n">
-        <v>210.9160074365284</v>
+        <v>278.8971755916531</v>
       </c>
       <c r="H32" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I32" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J32" t="n">
         <v>145.966048569732</v>
       </c>
       <c r="K32" t="n">
-        <v>412.3079679977593</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L32" t="n">
-        <v>795.005298154005</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M32" t="n">
         <v>1237.436361307048</v>
@@ -6718,34 +6718,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P32" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q32" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R32" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S32" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T32" t="n">
-        <v>2371.897027894855</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U32" t="n">
-        <v>2169.59740546561</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="V32" t="n">
-        <v>2169.59740546561</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="W32" t="n">
-        <v>1816.828750195496</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="X32" t="n">
-        <v>1816.828750195496</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="Y32" t="n">
-        <v>1426.689418219684</v>
+        <v>1831.233689984038</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.7751048338188</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C33" t="n">
-        <v>814.3220755526918</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D33" t="n">
-        <v>665.3876658914405</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E33" t="n">
-        <v>506.150210885985</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F33" t="n">
-        <v>359.6156529128699</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G33" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H33" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I33" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J33" t="n">
-        <v>48.81975253256328</v>
+        <v>81.93751399838828</v>
       </c>
       <c r="K33" t="n">
-        <v>285.1110033225004</v>
+        <v>318.2287647883253</v>
       </c>
       <c r="L33" t="n">
-        <v>664.2381464478937</v>
+        <v>697.3559079137186</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.640861843456</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N33" t="n">
-        <v>1681.835959361802</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O33" t="n">
-        <v>2094.041580881031</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q33" t="n">
         <v>2440.987626628164</v>
@@ -6806,25 +6806,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S33" t="n">
-        <v>2280.589895521038</v>
+        <v>2316.764520037966</v>
       </c>
       <c r="T33" t="n">
-        <v>2081.228572368207</v>
+        <v>2117.403196885135</v>
       </c>
       <c r="U33" t="n">
-        <v>1853.051068437921</v>
+        <v>1889.225692954849</v>
       </c>
       <c r="V33" t="n">
-        <v>1617.898960206178</v>
+        <v>1654.073584723107</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.602240824373</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.750740618841</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.990441853887</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>195.7097000304736</v>
+        <v>204.3052166446314</v>
       </c>
       <c r="C34" t="n">
-        <v>195.7097000304736</v>
+        <v>198.936391944899</v>
       </c>
       <c r="D34" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E34" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F34" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G34" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H34" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I34" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J34" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K34" t="n">
-        <v>93.68771932371202</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L34" t="n">
         <v>206.6297039190408</v>
       </c>
       <c r="M34" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N34" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O34" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P34" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q34" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R34" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S34" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T34" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U34" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V34" t="n">
-        <v>416.5022791740038</v>
+        <v>385.9536814748711</v>
       </c>
       <c r="W34" t="n">
-        <v>416.5022791740038</v>
+        <v>385.9536814748711</v>
       </c>
       <c r="X34" t="n">
-        <v>416.5022791740038</v>
+        <v>385.9536814748711</v>
       </c>
       <c r="Y34" t="n">
-        <v>195.7097000304736</v>
+        <v>385.9536814748711</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1263.781575849841</v>
+        <v>1328.153373032848</v>
       </c>
       <c r="C35" t="n">
-        <v>1263.781575849841</v>
+        <v>1328.153373032848</v>
       </c>
       <c r="D35" t="n">
-        <v>1263.781575849841</v>
+        <v>969.8876744260972</v>
       </c>
       <c r="E35" t="n">
-        <v>877.9933232515971</v>
+        <v>584.0994218278529</v>
       </c>
       <c r="F35" t="n">
-        <v>467.0074184619895</v>
+        <v>173.1135170382453</v>
       </c>
       <c r="G35" t="n">
-        <v>48.81975253256327</v>
+        <v>173.1135170382453</v>
       </c>
       <c r="H35" t="n">
         <v>48.81975253256327</v>
@@ -6937,13 +6937,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J35" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K35" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M35" t="n">
         <v>1237.436361307048</v>
@@ -6961,28 +6961,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R35" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S35" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T35" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U35" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V35" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W35" t="n">
-        <v>2371.897027894854</v>
+        <v>2088.218971358049</v>
       </c>
       <c r="X35" t="n">
-        <v>2040.520747889775</v>
+        <v>1714.753213096969</v>
       </c>
       <c r="Y35" t="n">
-        <v>1650.381415913963</v>
+        <v>1714.753213096969</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>722.1845715439331</v>
+        <v>850.7452172829803</v>
       </c>
       <c r="C36" t="n">
-        <v>547.7315422628061</v>
+        <v>676.2921880018533</v>
       </c>
       <c r="D36" t="n">
-        <v>547.7315422628061</v>
+        <v>527.3577783406021</v>
       </c>
       <c r="E36" t="n">
-        <v>388.4940872573506</v>
+        <v>368.1203233351466</v>
       </c>
       <c r="F36" t="n">
-        <v>241.9595292842356</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="G36" t="n">
         <v>221.5857653620315</v>
@@ -7016,25 +7016,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J36" t="n">
-        <v>48.81975253256327</v>
+        <v>81.93751399838828</v>
       </c>
       <c r="K36" t="n">
-        <v>285.1110033225004</v>
+        <v>318.2287647883253</v>
       </c>
       <c r="L36" t="n">
-        <v>664.2381464478937</v>
+        <v>697.3559079137186</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.640861843456</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N36" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O36" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q36" t="n">
         <v>2440.987626628164</v>
@@ -7049,19 +7049,19 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U36" t="n">
-        <v>1795.401172494432</v>
+        <v>1923.961818233479</v>
       </c>
       <c r="V36" t="n">
-        <v>1560.249064262689</v>
+        <v>1688.809710001737</v>
       </c>
       <c r="W36" t="n">
-        <v>1306.011707534488</v>
+        <v>1434.572353273535</v>
       </c>
       <c r="X36" t="n">
-        <v>1098.160207328955</v>
+        <v>1226.720853068002</v>
       </c>
       <c r="Y36" t="n">
-        <v>890.3999085640012</v>
+        <v>1018.960554303048</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>633.0880942760439</v>
+        <v>346.8494855272921</v>
       </c>
       <c r="C37" t="n">
-        <v>633.0880942760439</v>
+        <v>346.8494855272921</v>
       </c>
       <c r="D37" t="n">
-        <v>482.9714548637081</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="E37" t="n">
-        <v>335.058361281315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F37" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G37" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H37" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I37" t="n">
         <v>48.81975253256327</v>
@@ -7104,43 +7104,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M37" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N37" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O37" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P37" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q37" t="n">
-        <v>640.6381696807582</v>
+        <v>602.8128707069466</v>
       </c>
       <c r="R37" t="n">
-        <v>640.6381696807582</v>
+        <v>602.8128707069466</v>
       </c>
       <c r="S37" t="n">
-        <v>640.6381696807582</v>
+        <v>602.8128707069466</v>
       </c>
       <c r="T37" t="n">
-        <v>640.6381696807582</v>
+        <v>602.8128707069466</v>
       </c>
       <c r="U37" t="n">
-        <v>640.6381696807582</v>
+        <v>602.8128707069466</v>
       </c>
       <c r="V37" t="n">
-        <v>640.6381696807582</v>
+        <v>348.1283825010597</v>
       </c>
       <c r="W37" t="n">
-        <v>640.6381696807582</v>
+        <v>348.1283825010597</v>
       </c>
       <c r="X37" t="n">
-        <v>640.6381696807582</v>
+        <v>348.1283825010597</v>
       </c>
       <c r="Y37" t="n">
-        <v>633.0880942760439</v>
+        <v>348.1283825010597</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1236.259021858348</v>
+        <v>1369.576882096602</v>
       </c>
       <c r="C38" t="n">
-        <v>1236.259021858348</v>
+        <v>1369.576882096602</v>
       </c>
       <c r="D38" t="n">
-        <v>877.9933232515971</v>
+        <v>1369.576882096602</v>
       </c>
       <c r="E38" t="n">
-        <v>877.9933232515971</v>
+        <v>1369.576882096602</v>
       </c>
       <c r="F38" t="n">
-        <v>467.0074184619895</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="G38" t="n">
-        <v>48.81975253256328</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H38" t="n">
-        <v>48.81975253256328</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I38" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J38" t="n">
         <v>145.966048569732</v>
       </c>
       <c r="K38" t="n">
-        <v>412.3079679977593</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L38" t="n">
-        <v>795.005298154005</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M38" t="n">
         <v>1237.436361307048</v>
@@ -7198,28 +7198,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R38" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S38" t="n">
-        <v>2344.061081241852</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T38" t="n">
-        <v>2344.061081241852</v>
+        <v>2221.373021959851</v>
       </c>
       <c r="U38" t="n">
-        <v>2344.061081241852</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V38" t="n">
-        <v>2012.998193898281</v>
+        <v>1636.530440628163</v>
       </c>
       <c r="W38" t="n">
-        <v>2012.998193898281</v>
+        <v>1636.530440628163</v>
       </c>
       <c r="X38" t="n">
-        <v>2012.998193898281</v>
+        <v>1369.576882096602</v>
       </c>
       <c r="Y38" t="n">
-        <v>1622.858861922469</v>
+        <v>1369.576882096602</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.7751048338188</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C39" t="n">
-        <v>814.3220755526918</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D39" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E39" t="n">
-        <v>506.150210885985</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="F39" t="n">
         <v>359.6156529128699</v>
@@ -7250,10 +7250,10 @@
         <v>114.9862139017798</v>
       </c>
       <c r="I39" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J39" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K39" t="n">
         <v>285.1110033225004</v>
@@ -7277,28 +7277,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R39" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S39" t="n">
-        <v>2280.589895521038</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T39" t="n">
-        <v>2081.228572368207</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U39" t="n">
-        <v>2061.991705784318</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.839597552575</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.602240824373</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.750740618841</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.990441853887</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C40" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D40" t="n">
-        <v>512.7230087894206</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E40" t="n">
-        <v>364.8099152070275</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F40" t="n">
-        <v>217.9199677091172</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G40" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H40" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I40" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J40" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K40" t="n">
-        <v>93.68771932371202</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L40" t="n">
         <v>206.6297039190408</v>
@@ -7365,19 +7365,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U40" t="n">
-        <v>640.6381696807582</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V40" t="n">
-        <v>640.6381696807582</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="W40" t="n">
-        <v>640.6381696807582</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="X40" t="n">
-        <v>640.6381696807582</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="Y40" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1263.021297461557</v>
+        <v>1622.047274456592</v>
       </c>
       <c r="C41" t="n">
-        <v>894.0587805211449</v>
+        <v>1622.047274456592</v>
       </c>
       <c r="D41" t="n">
-        <v>894.0587805211449</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E41" t="n">
-        <v>508.2705279229006</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F41" t="n">
-        <v>97.28462313329305</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G41" t="n">
         <v>48.81975253256327</v>
@@ -7438,25 +7438,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S41" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T41" t="n">
-        <v>2259.7089786956</v>
+        <v>2326.575920061242</v>
       </c>
       <c r="U41" t="n">
-        <v>2005.929284707482</v>
+        <v>2326.575920061242</v>
       </c>
       <c r="V41" t="n">
-        <v>2005.929284707482</v>
+        <v>1995.513032717672</v>
       </c>
       <c r="W41" t="n">
-        <v>1653.160629437368</v>
+        <v>1995.513032717672</v>
       </c>
       <c r="X41" t="n">
-        <v>1653.160629437368</v>
+        <v>1622.047274456592</v>
       </c>
       <c r="Y41" t="n">
-        <v>1263.021297461557</v>
+        <v>1622.047274456592</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>722.1845715439331</v>
+        <v>744.1456658227286</v>
       </c>
       <c r="C42" t="n">
-        <v>722.1845715439331</v>
+        <v>569.6926365416016</v>
       </c>
       <c r="D42" t="n">
-        <v>573.2501618826818</v>
+        <v>420.7582268803504</v>
       </c>
       <c r="E42" t="n">
-        <v>414.0127068772263</v>
+        <v>261.5207718748949</v>
       </c>
       <c r="F42" t="n">
-        <v>267.4781489041113</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="G42" t="n">
-        <v>129.4482613532729</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="H42" t="n">
         <v>114.9862139017798</v>
@@ -7490,25 +7490,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J42" t="n">
-        <v>48.81975253256327</v>
+        <v>81.93751399838814</v>
       </c>
       <c r="K42" t="n">
-        <v>161.1406371339193</v>
+        <v>318.2287647883252</v>
       </c>
       <c r="L42" t="n">
-        <v>540.2677802593125</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M42" t="n">
-        <v>1034.670495654875</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N42" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O42" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q42" t="n">
         <v>2440.987626628164</v>
@@ -7526,16 +7526,16 @@
         <v>1795.401172494432</v>
       </c>
       <c r="V42" t="n">
-        <v>1560.249064262689</v>
+        <v>1582.210158541485</v>
       </c>
       <c r="W42" t="n">
-        <v>1306.011707534488</v>
+        <v>1327.972801813283</v>
       </c>
       <c r="X42" t="n">
-        <v>1098.160207328955</v>
+        <v>1120.12130160775</v>
       </c>
       <c r="Y42" t="n">
-        <v>890.3999085640012</v>
+        <v>912.3610028427966</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>368.0366071214529</v>
+        <v>165.1611023313413</v>
       </c>
       <c r="C43" t="n">
-        <v>368.0366071214529</v>
+        <v>165.1611023313413</v>
       </c>
       <c r="D43" t="n">
-        <v>217.9199677091171</v>
+        <v>165.1611023313413</v>
       </c>
       <c r="E43" t="n">
-        <v>217.9199677091171</v>
+        <v>165.1611023313413</v>
       </c>
       <c r="F43" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G43" t="n">
         <v>48.81975253256327</v>
@@ -7596,25 +7596,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S43" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T43" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U43" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V43" t="n">
-        <v>424.5997883913116</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="W43" t="n">
-        <v>424.5997883913116</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="X43" t="n">
-        <v>368.0366071214529</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="Y43" t="n">
-        <v>368.0366071214529</v>
+        <v>165.1611023313413</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1533.346912468206</v>
+        <v>1033.392538692174</v>
       </c>
       <c r="C44" t="n">
-        <v>1533.346912468206</v>
+        <v>1033.392538692174</v>
       </c>
       <c r="D44" t="n">
-        <v>1175.081213861455</v>
+        <v>675.126840085424</v>
       </c>
       <c r="E44" t="n">
-        <v>789.2929612632108</v>
+        <v>675.126840085424</v>
       </c>
       <c r="F44" t="n">
-        <v>378.3070564736033</v>
+        <v>675.126840085424</v>
       </c>
       <c r="G44" t="n">
-        <v>378.3070564736033</v>
+        <v>256.9391741559977</v>
       </c>
       <c r="H44" t="n">
         <v>48.81975253256327</v>
@@ -7654,19 +7654,19 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L44" t="n">
-        <v>795.0052981540041</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M44" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N44" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O44" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P44" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q44" t="n">
         <v>2440.987626628164</v>
@@ -7675,25 +7675,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S44" t="n">
-        <v>2371.897027894854</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T44" t="n">
-        <v>2152.282423226541</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U44" t="n">
-        <v>2152.282423226541</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V44" t="n">
-        <v>2152.282423226541</v>
+        <v>1386.161193962289</v>
       </c>
       <c r="W44" t="n">
-        <v>2152.282423226541</v>
+        <v>1033.392538692174</v>
       </c>
       <c r="X44" t="n">
-        <v>2152.282423226541</v>
+        <v>1033.392538692174</v>
       </c>
       <c r="Y44" t="n">
-        <v>1762.143091250729</v>
+        <v>1033.392538692174</v>
       </c>
     </row>
     <row r="45">
@@ -7715,10 +7715,10 @@
         <v>297.2095735395878</v>
       </c>
       <c r="F45" t="n">
-        <v>293.4491915436533</v>
+        <v>150.6750155664728</v>
       </c>
       <c r="G45" t="n">
-        <v>155.4193039928149</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H45" t="n">
         <v>48.81975253256327</v>
@@ -7727,16 +7727,16 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J45" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K45" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L45" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M45" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N45" t="n">
         <v>1557.865593173221</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C46" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D46" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E46" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F46" t="n">
         <v>48.81975253256327</v>
@@ -7830,28 +7830,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R46" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="S46" t="n">
-        <v>640.6381696807582</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="T46" t="n">
-        <v>640.6381696807582</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="U46" t="n">
-        <v>351.4590821581505</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="V46" t="n">
-        <v>351.4590821581505</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="W46" t="n">
-        <v>351.4590821581505</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="X46" t="n">
-        <v>351.4590821581505</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y46" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
   </sheetData>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N6" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>61.27660229194304</v>
+        <v>61.27660229194305</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>84.85469562617106</v>
+        <v>84.85469562617109</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.27660229194302</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>61.27660229194302</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>354.1197822338756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>61.27660229194302</v>
+        <v>94.72888660085718</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>84.85469562617106</v>
+        <v>51.40241131725696</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>94.72888660085704</v>
+        <v>94.72888660085718</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>51.40241131725695</v>
+        <v>51.40241131725696</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>61.27660229194302</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.27660229194302</v>
+        <v>94.72888660085718</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10445,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>193.2401765302593</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725696</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>61.27660229194302</v>
+        <v>94.72888660085718</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>354.1197822338756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725696</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>84.85469562617152</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>61.27660229194302</v>
+        <v>94.72888660085704</v>
       </c>
       <c r="K42" t="n">
-        <v>139.2426449029007</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504499</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599044</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>289.3053491854098</v>
+        <v>354.1197822338756</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>95.57612995401183</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>15.78190885340109</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
         <v>326.1924309016296</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S11" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23345,19 +23345,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>118.8554155636029</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>21.74148333600759</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>71.50367393086256</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.4092130247883</v>
@@ -23469,13 +23469,13 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2872966473816</v>
+        <v>239.0477053310876</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>179.4658614532381</v>
@@ -23551,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>107.8575084623503</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>153.3566385171452</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23579,22 +23579,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>118.8554155636029</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>50.97476563682361</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>65.50479675552442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.03939889391035</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23676,7 +23676,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J16" t="n">
-        <v>52.22830032617343</v>
+        <v>52.22830032617344</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407327</v>
       </c>
       <c r="R16" t="n">
         <v>151.1350615014064</v>
@@ -23712,16 +23712,16 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>59.19388683478036</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>317.5379844872383</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>113.1808917021974</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S17" t="n">
         <v>179.4658614532381</v>
@@ -23791,13 +23791,13 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23828,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S18" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23870,7 +23870,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>105.1308741609318</v>
+        <v>35.81287827175959</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>16.48505947671825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R19" t="n">
         <v>151.1350615014064</v>
@@ -23946,10 +23946,10 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>239.0477053310879</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23971,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.005789270132</v>
+        <v>302.8029024278006</v>
       </c>
       <c r="H20" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>160.4752923549255</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.3996927459763</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S20" t="n">
-        <v>76.75452622999907</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24068,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24101,13 +24101,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>197.3677099213027</v>
+        <v>58.24193217968229</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>1.05212128015944</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>58.94409199379615</v>
+        <v>86.21853812139149</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R22" t="n">
         <v>151.1350615014064</v>
@@ -24180,13 +24180,13 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>25.01110517218626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24226,7 +24226,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I23" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S23" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>292.526321194431</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24299,13 +24299,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H24" t="n">
-        <v>31.12404080756151</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24344,7 +24344,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24408,28 +24408,28 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S25" t="n">
-        <v>4.572686549298822</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2872966473816</v>
+        <v>212.6197173962969</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24451,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H26" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I26" t="n">
-        <v>160.4752923549255</v>
+        <v>118.7447954686228</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S26" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>248.2022021776251</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24578,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>158.3910720113375</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>101.3176750272841</v>
       </c>
     </row>
     <row r="28">
@@ -24603,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>35.32644880324852</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>91.6638041587464</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H28" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J28" t="n">
         <v>52.22830032617343</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R28" t="n">
         <v>151.1350615014064</v>
@@ -24654,7 +24654,7 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T28" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2872966473816</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>338.5417824984713</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>160.4752923549255</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.3996927459763</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S29" t="n">
         <v>179.4658614532381</v>
@@ -24736,19 +24736,19 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>24.60129135205329</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24767,13 +24767,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1.078245769455719</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>31.1240408075615</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24818,13 +24818,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>157.0547409226243</v>
+        <v>33.61315663548147</v>
       </c>
       <c r="I31" t="n">
         <v>137.955174638333</v>
@@ -24882,16 +24882,16 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T31" t="n">
-        <v>4.572686549298851</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U31" t="n">
         <v>286.2872966473816</v>
@@ -24919,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
-        <v>326.1924309016296</v>
+        <v>98.4157820731306</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S32" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>50.96527084328403</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25013,10 +25013,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>35.81287827175935</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25058,7 +25058,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>206.8512309729327</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>161.9316846458927</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.4092130247883</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R34" t="n">
         <v>151.1350615014064</v>
@@ -25134,7 +25134,7 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V34" t="n">
-        <v>30.24311172214112</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25159,7 +25159,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H35" t="n">
-        <v>326.1924309016296</v>
+        <v>203.1416040410043</v>
       </c>
       <c r="I35" t="n">
         <v>160.4752923549255</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S35" t="n">
         <v>179.4658614532381</v>
@@ -25216,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>41.66858347344061</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25238,7 +25238,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25247,7 +25247,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>116.479562392348</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25289,7 +25289,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>127.2750392816566</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>178.5658721779074</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.4092130247883</v>
@@ -25332,7 +25332,7 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J37" t="n">
         <v>52.22830032617343</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>151.1350615014064</v>
@@ -25371,7 +25371,7 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>211.1100787014276</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S38" t="n">
-        <v>151.9082742667654</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>105.4470777322244</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25478,10 +25478,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>118.8554155636029</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25526,7 +25526,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>206.8512309729326</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>21.97946373578817</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H40" t="n">
         <v>157.0547409226243</v>
@@ -25605,10 +25605,10 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>171.1093603465914</v>
       </c>
     </row>
     <row r="41">
@@ -25630,10 +25630,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>366.0255673754095</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>326.1924309016296</v>
@@ -25678,25 +25678,25 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4184586216305</v>
+        <v>104.1508691203786</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25709,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25721,10 +25721,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H42" t="n">
-        <v>91.21612896867103</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25766,7 +25766,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>21.74148333600746</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>30.24311172214105</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H43" t="n">
         <v>157.0547409226243</v>
@@ -25836,7 +25836,7 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T43" t="n">
         <v>225.4598605480533</v>
@@ -25845,16 +25845,16 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>169.7121059318771</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>156.2256246687824</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>120.1542034944295</v>
       </c>
       <c r="I44" t="n">
         <v>160.4752923549255</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25955,13 +25955,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>141.3464342174088</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>35.81287827175962</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I45" t="n">
         <v>65.50479675552441</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.4092130247883</v>
@@ -26070,16 +26070,16 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R46" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>213.8779974765521</v>
+        <v>4.82248139028269</v>
       </c>
       <c r="T46" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26088,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>64.39276504569469</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>568634.0036888085</v>
+        <v>568634.0036888084</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>568634.0036888085</v>
+        <v>568634.0036888084</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>568634.0036888085</v>
+        <v>568634.0036888084</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>568634.0036888085</v>
+        <v>568634.0036888084</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>568634.0036888085</v>
+        <v>568634.0036888084</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>568634.0036888086</v>
+        <v>568634.0036888084</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>568634.0036888085</v>
+        <v>568634.0036888084</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>568634.0036888084</v>
+        <v>568634.0036888085</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982119</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982125</v>
@@ -26325,37 +26325,37 @@
         <v>406713.5901862449</v>
       </c>
       <c r="F2" t="n">
-        <v>406713.5901862447</v>
+        <v>406713.5901862449</v>
       </c>
       <c r="G2" t="n">
-        <v>406713.5901862446</v>
+        <v>406713.5901862449</v>
       </c>
       <c r="H2" t="n">
-        <v>406713.5901862447</v>
+        <v>406713.5901862448</v>
       </c>
       <c r="I2" t="n">
-        <v>406713.5901862447</v>
+        <v>406713.5901862449</v>
       </c>
       <c r="J2" t="n">
-        <v>406713.5901862447</v>
+        <v>406713.5901862449</v>
       </c>
       <c r="K2" t="n">
+        <v>406713.5901862449</v>
+      </c>
+      <c r="L2" t="n">
+        <v>406713.590186245</v>
+      </c>
+      <c r="M2" t="n">
         <v>406713.5901862448</v>
       </c>
-      <c r="L2" t="n">
-        <v>406713.5901862448</v>
-      </c>
-      <c r="M2" t="n">
-        <v>406713.5901862446</v>
-      </c>
       <c r="N2" t="n">
-        <v>406713.5901862447</v>
+        <v>406713.5901862449</v>
       </c>
       <c r="O2" t="n">
-        <v>406713.5901862448</v>
+        <v>406713.5901862449</v>
       </c>
       <c r="P2" t="n">
-        <v>406713.590186245</v>
+        <v>406713.5901862449</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>369435.2991327802</v>
+        <v>369435.2991327801</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>9.374401997774843e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92014.24528109304</v>
+        <v>92014.24528109307</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26499,13 +26499,13 @@
         <v>44136.03802033842</v>
       </c>
       <c r="L5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="M5" t="n">
         <v>44136.03802033842</v>
       </c>
       <c r="N5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="O5" t="n">
         <v>44136.03802033842</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>182502.8312558245</v>
+        <v>182502.8312558239</v>
       </c>
       <c r="C6" t="n">
-        <v>263272.2627873722</v>
+        <v>263272.2627873724</v>
       </c>
       <c r="D6" t="n">
         <v>263272.2627873722</v>
       </c>
       <c r="E6" t="n">
-        <v>-40639.59759116554</v>
+        <v>-34367.56547480639</v>
       </c>
       <c r="F6" t="n">
-        <v>328795.7015416145</v>
+        <v>335067.7336579737</v>
       </c>
       <c r="G6" t="n">
-        <v>328795.7015416144</v>
+        <v>335067.7336579736</v>
       </c>
       <c r="H6" t="n">
-        <v>328795.7015416145</v>
+        <v>335067.7336579736</v>
       </c>
       <c r="I6" t="n">
-        <v>328795.7015416145</v>
+        <v>335067.7336579738</v>
       </c>
       <c r="J6" t="n">
-        <v>265735.7589425083</v>
+        <v>272007.7910588675</v>
       </c>
       <c r="K6" t="n">
-        <v>328795.7015416146</v>
+        <v>335067.7336579738</v>
       </c>
       <c r="L6" t="n">
-        <v>328795.7015416145</v>
+        <v>335067.7336579739</v>
       </c>
       <c r="M6" t="n">
-        <v>236781.4562605213</v>
+        <v>243053.4883768805</v>
       </c>
       <c r="N6" t="n">
-        <v>328795.7015416144</v>
+        <v>335067.7336579737</v>
       </c>
       <c r="O6" t="n">
-        <v>328795.7015416146</v>
+        <v>335067.7336579738</v>
       </c>
       <c r="P6" t="n">
-        <v>328795.7015416148</v>
+        <v>335067.7336579738</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>322.6158759445108</v>
       </c>
       <c r="F3" t="n">
-        <v>322.6158759445108</v>
+        <v>322.6158759445107</v>
       </c>
       <c r="G3" t="n">
         <v>322.6158759445108</v>
@@ -26819,13 +26819,13 @@
         <v>610.2469066570409</v>
       </c>
       <c r="L4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="M4" t="n">
         <v>610.2469066570409</v>
       </c>
       <c r="N4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="O4" t="n">
         <v>610.2469066570409</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.205731028013953e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>369.2326177793819</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793817</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793819</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>301.9037271885252</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>312.2938397833332</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27438,7 +27438,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27463,25 +27463,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>125.6477056446075</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,22 +27505,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>65.41665298739503</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27590,7 +27590,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27621,13 +27621,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>287.9287071236136</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>351.1641048164582</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27669,16 +27669,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27703,16 +27703,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27760,10 +27760,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>31.40269881826603</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>107.524578582315</v>
       </c>
     </row>
     <row r="7">
@@ -27782,13 +27782,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>15.96843579630763</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>59.79494433408007</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27861,10 +27861,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>319.1698855250446</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27876,7 +27876,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>207.0637161124945</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27931,22 +27931,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>102.3410493332383</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28000,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>117.0649405732773</v>
       </c>
     </row>
     <row r="10">
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>37.22501299855256</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28031,7 +28031,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>47.2544399028796</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -31992,10 +31992,10 @@
         <v>1.296948245003057</v>
       </c>
       <c r="H14" t="n">
-        <v>13.28237121413757</v>
+        <v>13.28237121413756</v>
       </c>
       <c r="I14" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548041</v>
       </c>
       <c r="J14" t="n">
         <v>110.0768611093283</v>
@@ -32004,31 +32004,31 @@
         <v>164.9766803203078</v>
       </c>
       <c r="L14" t="n">
-        <v>204.6681601733202</v>
+        <v>204.6681601733201</v>
       </c>
       <c r="M14" t="n">
-        <v>227.7327635253933</v>
+        <v>227.7327635253932</v>
       </c>
       <c r="N14" t="n">
         <v>231.4177177265082</v>
       </c>
       <c r="O14" t="n">
-        <v>218.5211886152591</v>
+        <v>218.521188615259</v>
       </c>
       <c r="P14" t="n">
-        <v>186.5027788167461</v>
+        <v>186.502778816746</v>
       </c>
       <c r="Q14" t="n">
         <v>140.055819792574</v>
       </c>
       <c r="R14" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517336</v>
       </c>
       <c r="S14" t="n">
-        <v>29.5542081330072</v>
+        <v>29.55420813300719</v>
       </c>
       <c r="T14" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500886</v>
       </c>
       <c r="U14" t="n">
         <v>0.1037558596002446</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.6939284878806458</v>
       </c>
       <c r="H15" t="n">
-        <v>6.701888290847291</v>
+        <v>6.70188829084729</v>
       </c>
       <c r="I15" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J15" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472364</v>
       </c>
       <c r="K15" t="n">
         <v>112.0542330627269</v>
@@ -32098,19 +32098,19 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876454</v>
       </c>
       <c r="R15" t="n">
-        <v>43.08443716858959</v>
+        <v>43.08443716858958</v>
       </c>
       <c r="S15" t="n">
         <v>12.88941730778304</v>
       </c>
       <c r="T15" t="n">
-        <v>2.797018773518918</v>
+        <v>2.797018773518917</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214776</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704291</v>
       </c>
       <c r="H16" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815273</v>
       </c>
       <c r="I16" t="n">
         <v>17.49530028892528</v>
@@ -32162,31 +32162,31 @@
         <v>67.59067040280075</v>
       </c>
       <c r="L16" t="n">
-        <v>86.49278746223818</v>
+        <v>86.49278746223817</v>
       </c>
       <c r="M16" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526552</v>
       </c>
       <c r="N16" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613036</v>
       </c>
       <c r="O16" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188941</v>
       </c>
       <c r="P16" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501259</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762111</v>
       </c>
       <c r="R16" t="n">
-        <v>26.15832987576311</v>
+        <v>26.1583298757631</v>
       </c>
       <c r="S16" t="n">
         <v>10.13860056042011</v>
       </c>
       <c r="T16" t="n">
-        <v>2.485728880228197</v>
+        <v>2.485728880228196</v>
       </c>
       <c r="U16" t="n">
         <v>0.03173270910929617</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H17" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I17" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J17" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K17" t="n">
         <v>164.9766803203078</v>
@@ -32247,7 +32247,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N17" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O17" t="n">
         <v>218.5211886152591</v>
@@ -32259,13 +32259,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R17" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S17" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T17" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U17" t="n">
         <v>0.1037558596002446</v>
@@ -32305,25 +32305,25 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H18" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I18" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J18" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K18" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L18" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M18" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N18" t="n">
         <v>180.479234222958</v>
@@ -32335,10 +32335,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R18" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S18" t="n">
         <v>12.88941730778304</v>
@@ -32347,7 +32347,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,40 +32384,40 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H19" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I19" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J19" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K19" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L19" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M19" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N19" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O19" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P19" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R19" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S19" t="n">
         <v>10.13860056042011</v>
@@ -32426,7 +32426,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H20" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I20" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J20" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K20" t="n">
         <v>164.9766803203078</v>
@@ -32484,7 +32484,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N20" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O20" t="n">
         <v>218.5211886152591</v>
@@ -32496,13 +32496,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R20" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S20" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T20" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U20" t="n">
         <v>0.1037558596002446</v>
@@ -32542,25 +32542,25 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H21" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I21" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J21" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K21" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L21" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M21" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N21" t="n">
         <v>180.479234222958</v>
@@ -32572,10 +32572,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R21" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S21" t="n">
         <v>12.88941730778304</v>
@@ -32584,7 +32584,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,40 +32621,40 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H22" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I22" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J22" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K22" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L22" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M22" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N22" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O22" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P22" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R22" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S22" t="n">
         <v>10.13860056042011</v>
@@ -32663,7 +32663,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H23" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I23" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J23" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K23" t="n">
         <v>164.9766803203078</v>
@@ -32721,7 +32721,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N23" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O23" t="n">
         <v>218.5211886152591</v>
@@ -32733,13 +32733,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R23" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S23" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T23" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U23" t="n">
         <v>0.1037558596002446</v>
@@ -32779,25 +32779,25 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H24" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I24" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J24" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K24" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L24" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M24" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N24" t="n">
         <v>180.479234222958</v>
@@ -32809,10 +32809,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R24" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S24" t="n">
         <v>12.88941730778304</v>
@@ -32821,7 +32821,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,40 +32858,40 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H25" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I25" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J25" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K25" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L25" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M25" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N25" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O25" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P25" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R25" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S25" t="n">
         <v>10.13860056042011</v>
@@ -32900,7 +32900,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H26" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I26" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J26" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K26" t="n">
         <v>164.9766803203078</v>
@@ -32958,7 +32958,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N26" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O26" t="n">
         <v>218.5211886152591</v>
@@ -32970,13 +32970,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R26" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S26" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T26" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U26" t="n">
         <v>0.1037558596002446</v>
@@ -33016,25 +33016,25 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H27" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I27" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J27" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K27" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L27" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M27" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N27" t="n">
         <v>180.479234222958</v>
@@ -33046,10 +33046,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R27" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S27" t="n">
         <v>12.88941730778304</v>
@@ -33058,7 +33058,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,40 +33095,40 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H28" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I28" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J28" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K28" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L28" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M28" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N28" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O28" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P28" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R28" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S28" t="n">
         <v>10.13860056042011</v>
@@ -33137,7 +33137,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H29" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I29" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J29" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K29" t="n">
         <v>164.9766803203078</v>
@@ -33195,7 +33195,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N29" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O29" t="n">
         <v>218.5211886152591</v>
@@ -33207,13 +33207,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R29" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S29" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T29" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U29" t="n">
         <v>0.1037558596002446</v>
@@ -33253,25 +33253,25 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H30" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I30" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J30" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K30" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L30" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M30" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N30" t="n">
         <v>180.479234222958</v>
@@ -33283,10 +33283,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R30" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S30" t="n">
         <v>12.88941730778304</v>
@@ -33295,7 +33295,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,40 +33332,40 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H31" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I31" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J31" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K31" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L31" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M31" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N31" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O31" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P31" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R31" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S31" t="n">
         <v>10.13860056042011</v>
@@ -33374,7 +33374,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H32" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I32" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J32" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K32" t="n">
         <v>164.9766803203078</v>
@@ -33432,7 +33432,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N32" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O32" t="n">
         <v>218.5211886152591</v>
@@ -33444,13 +33444,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R32" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S32" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T32" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U32" t="n">
         <v>0.1037558596002446</v>
@@ -33490,25 +33490,25 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H33" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I33" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J33" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K33" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L33" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M33" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N33" t="n">
         <v>180.479234222958</v>
@@ -33520,10 +33520,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R33" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S33" t="n">
         <v>12.88941730778304</v>
@@ -33532,7 +33532,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,40 +33569,40 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H34" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I34" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J34" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K34" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L34" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M34" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N34" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O34" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P34" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R34" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S34" t="n">
         <v>10.13860056042011</v>
@@ -33611,7 +33611,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H35" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I35" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J35" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K35" t="n">
         <v>164.9766803203078</v>
@@ -33669,7 +33669,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N35" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O35" t="n">
         <v>218.5211886152591</v>
@@ -33681,13 +33681,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R35" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S35" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T35" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U35" t="n">
         <v>0.1037558596002446</v>
@@ -33727,25 +33727,25 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H36" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I36" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J36" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K36" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L36" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M36" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N36" t="n">
         <v>180.479234222958</v>
@@ -33757,10 +33757,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R36" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S36" t="n">
         <v>12.88941730778304</v>
@@ -33769,7 +33769,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,40 +33806,40 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H37" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I37" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J37" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K37" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L37" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M37" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N37" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O37" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P37" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R37" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S37" t="n">
         <v>10.13860056042011</v>
@@ -33848,7 +33848,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34707,10 +34707,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34944,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35023,10 +35023,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>98.12757175471583</v>
+        <v>98.1275717547158</v>
       </c>
       <c r="K14" t="n">
         <v>269.032241846492</v>
       </c>
       <c r="L14" t="n">
-        <v>386.5629597537834</v>
+        <v>386.5629597537833</v>
       </c>
       <c r="M14" t="n">
         <v>446.900063790953</v>
       </c>
       <c r="N14" t="n">
-        <v>439.3515785419015</v>
+        <v>439.3515785419014</v>
       </c>
       <c r="O14" t="n">
         <v>369.2231584563177</v>
       </c>
       <c r="P14" t="n">
-        <v>277.0684912329592</v>
+        <v>277.0684912329591</v>
       </c>
       <c r="Q14" t="n">
         <v>130.0651205780292</v>
@@ -35816,13 +35816,13 @@
         <v>130.7783941571061</v>
       </c>
       <c r="N16" t="n">
-        <v>133.158287785359</v>
+        <v>133.1582877853589</v>
       </c>
       <c r="O16" t="n">
         <v>106.8151547859291</v>
       </c>
       <c r="P16" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990608</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K17" t="n">
         <v>269.032241846492</v>
@@ -35892,7 +35892,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M17" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N17" t="n">
         <v>439.3515785419015</v>
@@ -35965,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L18" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M18" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N18" t="n">
         <v>528.4798964831782</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L19" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M19" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N19" t="n">
         <v>133.158287785359</v>
@@ -36059,7 +36059,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P19" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K20" t="n">
         <v>269.032241846492</v>
@@ -36129,7 +36129,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M20" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N20" t="n">
         <v>439.3515785419015</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L21" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M21" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N21" t="n">
-        <v>403.2573043735003</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O21" t="n">
         <v>416.3693146658877</v>
@@ -36220,7 +36220,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L22" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M22" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N22" t="n">
         <v>133.158287785359</v>
@@ -36296,7 +36296,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P22" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K23" t="n">
         <v>269.032241846492</v>
@@ -36366,7 +36366,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M23" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N23" t="n">
         <v>439.3515785419015</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>33.45228430891415</v>
       </c>
       <c r="K24" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L24" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M24" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N24" t="n">
         <v>528.4798964831782</v>
@@ -36457,7 +36457,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q24" t="n">
-        <v>33.45228430891411</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L25" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M25" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N25" t="n">
         <v>133.158287785359</v>
@@ -36533,7 +36533,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P25" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K26" t="n">
         <v>269.032241846492</v>
@@ -36603,7 +36603,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M26" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N26" t="n">
         <v>439.3515785419015</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>33.45228430891401</v>
+        <v>33.45228430891415</v>
       </c>
       <c r="K27" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L27" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M27" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N27" t="n">
         <v>528.4798964831782</v>
@@ -36755,13 +36755,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L28" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M28" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N28" t="n">
         <v>133.158287785359</v>
@@ -36770,7 +36770,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P28" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K29" t="n">
         <v>269.032241846492</v>
@@ -36840,7 +36840,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M29" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N29" t="n">
         <v>439.3515785419015</v>
@@ -36913,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L30" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M30" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N30" t="n">
         <v>528.4798964831782</v>
@@ -36992,13 +36992,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L31" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M31" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N31" t="n">
         <v>133.158287785359</v>
@@ -37007,7 +37007,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P31" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K32" t="n">
         <v>269.032241846492</v>
@@ -37077,7 +37077,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M32" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N32" t="n">
         <v>439.3515785419015</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>33.45228430891415</v>
       </c>
       <c r="K33" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L33" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M33" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N33" t="n">
         <v>528.4798964831782</v>
@@ -37165,10 +37165,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P33" t="n">
-        <v>191.7756748411377</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,13 +37229,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L34" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M34" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N34" t="n">
         <v>133.158287785359</v>
@@ -37244,7 +37244,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P34" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K35" t="n">
         <v>269.032241846492</v>
@@ -37314,7 +37314,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M35" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N35" t="n">
         <v>439.3515785419015</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>33.45228430891415</v>
       </c>
       <c r="K36" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L36" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M36" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N36" t="n">
-        <v>403.2573043735003</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O36" t="n">
         <v>416.3693146658877</v>
@@ -37405,7 +37405,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,13 +37466,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L37" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M37" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N37" t="n">
         <v>133.158287785359</v>
@@ -37481,7 +37481,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P37" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q39" t="n">
-        <v>33.45228430891457</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>33.45228430891401</v>
       </c>
       <c r="K42" t="n">
-        <v>113.4554389912687</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L42" t="n">
         <v>382.95671022767</v>
@@ -37879,7 +37879,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q42" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>269.032241846492</v>
       </c>
       <c r="L44" t="n">
-        <v>386.5629597537828</v>
+        <v>386.5629597537834</v>
       </c>
       <c r="M44" t="n">
         <v>446.9000637909531</v>
@@ -38037,7 +38037,7 @@
         <v>277.0684912329592</v>
       </c>
       <c r="Q44" t="n">
-        <v>130.0651205780292</v>
+        <v>130.0651205780289</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>238.6780311009466</v>
@@ -38107,7 +38107,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N45" t="n">
-        <v>338.4428713250345</v>
+        <v>403.2573043735003</v>
       </c>
       <c r="O45" t="n">
         <v>416.3693146658877</v>
